--- a/data/hotels_by_city/Houston/Houston_shard_319.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_319.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="461">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g30163-d1465010-Reviews-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
   </si>
   <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Galveston-Hotels-Holiday-Inn-Express-Hotel-Suites-Houston-Alvin.h2571812.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1281 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r588944658-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>30163</t>
+  </si>
+  <si>
+    <t>1465010</t>
+  </si>
+  <si>
+    <t>588944658</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Perfect!!</t>
+  </si>
+  <si>
+    <t>The breakfast was incredible! Joy did an amazing job. The food was so fresh and the dining room was so clean. The rooms were so clean and my family loved it! The bed was so comfortable we all slept like babies.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Melissa F, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded June 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2018</t>
+  </si>
+  <si>
+    <t>The breakfast was incredible! Joy did an amazing job. The food was so fresh and the dining room was so clean. The rooms were so clean and my family loved it! The bed was so comfortable we all slept like babies.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r577763473-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>577763473</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Great for business trips</t>
+  </si>
+  <si>
+    <t>Stayed at this holiday inn for a work trip and it is one of my favorite holiday inns. I generally stay at IHG brand hotels and this has to be one of the top holiday inn expresses I have stayed at. Great rooms w/ comfortable bed, business center and free wifi internet was great, good selection at breakfast, great staff, and good location. Will definitely stay here again when I'm back in townMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Paulrobertsm, General Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Stayed at this holiday inn for a work trip and it is one of my favorite holiday inns. I generally stay at IHG brand hotels and this has to be one of the top holiday inn expresses I have stayed at. Great rooms w/ comfortable bed, business center and free wifi internet was great, good selection at breakfast, great staff, and good location. Will definitely stay here again when I'm back in townMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r576313226-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>576313226</t>
+  </si>
+  <si>
+    <t>04/28/2018</t>
+  </si>
+  <si>
+    <t>Perfect for a couples getaway!</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here last weekend for our anniversary. This hotel is recently renovated and you can tell that there was a lot of thought put into the remodel. All of the amenities were amazing and the staff was awesome! The front desk staff even gave us a great recommendation for a restaurant in Crystal Beach, Steve’s Landing. Definitely worth the drive. We will be staying here the next chance we get.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Parth P, General Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded April 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2018</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here last weekend for our anniversary. This hotel is recently renovated and you can tell that there was a lot of thought put into the remodel. All of the amenities were amazing and the staff was awesome! The front desk staff even gave us a great recommendation for a restaurant in Crystal Beach, Steve’s Landing. Definitely worth the drive. We will be staying here the next chance we get.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r573428332-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>573428332</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Amazing hotel for extended stay</t>
+  </si>
+  <si>
+    <t>I stayed for an extended period of time and got a great deal. Breakfast had a larger variety than most hotels. The staff genuinely cared. Hotel has been renovated recently. I will stay here next time I’m in AlvinMoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed for an extended period of time and got a great deal. Breakfast had a larger variety than most hotels. The staff genuinely cared. Hotel has been renovated recently. I will stay here next time I’m in AlvinMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r565888602-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>565888602</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A very good place to stay </t>
+  </si>
+  <si>
+    <t>The date of stay is incorrect because the app forces you to accept what they have on the app. It has been about 2 1/2 years since my last stay. All together I have stayed there 4 or 5 time as I have family in the area and because of the number of people visiting it was necessary for some of the people to stay at hotels. I really like it because the location is good for me and it is quite. The rooms are large and we'll furnished. The breakfast is delicious and well stocked. I have not used the pool but it is outside the dining area and it appears to be of good size and very clean. I will be visiting this spring for my grandsons graduation. I will most likely stay at this hotel for 2 or 3 days, not sure yet. If you ever find yourself in Alvin and need to stay over I recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Parth P, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded March 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2018</t>
+  </si>
+  <si>
+    <t>The date of stay is incorrect because the app forces you to accept what they have on the app. It has been about 2 1/2 years since my last stay. All together I have stayed there 4 or 5 time as I have family in the area and because of the number of people visiting it was necessary for some of the people to stay at hotels. I really like it because the location is good for me and it is quite. The rooms are large and we'll furnished. The breakfast is delicious and well stocked. I have not used the pool but it is outside the dining area and it appears to be of good size and very clean. I will be visiting this spring for my grandsons graduation. I will most likely stay at this hotel for 2 or 3 days, not sure yet. If you ever find yourself in Alvin and need to stay over I recommend this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r541003985-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>541003985</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>Good for the area</t>
+  </si>
+  <si>
+    <t>Check in was fast and easy. Front desk girls were very polite. We get to the room and upon opening the door this smell smacks you in the face. I couldn't pinpoint if it was an old smoking room or just musty smell. Strangely enough after a while, you seem to get use to it, but trust me, we dreaded that smack in the face every time we returned to our room. I knew the hotel was booked, so didn't bother to mention,  it was so strong that something like an air freshener wouldn't have done a thing. Room was a good size, we had 2 beds and a couch. You can tell they have been renovated and while I appreciate that, it was a bit sloppy. Paint wasn't neat, some of the pipes in bathroom weren't replaced, condensation stain on the window blinds. Our TV didn't work right away, apparently they have the sensor to the box taped to the tv from the back so if the sensor is moved, which it was, the TV won't work. But it was a nice tv, but could be made to look better instead of having the box dangling behind it.  The room did not have a hair dryer. Breakfast was good. Your average, eggs, pancakes, sausage..goes till 10am on weekends. The rate was a bit high for all the issues. Overall I would stay here again, just because it would be...Check in was fast and easy. Front desk girls were very polite. We get to the room and upon opening the door this smell smacks you in the face. I couldn't pinpoint if it was an old smoking room or just musty smell. Strangely enough after a while, you seem to get use to it, but trust me, we dreaded that smack in the face every time we returned to our room. I knew the hotel was booked, so didn't bother to mention,  it was so strong that something like an air freshener wouldn't have done a thing. Room was a good size, we had 2 beds and a couch. You can tell they have been renovated and while I appreciate that, it was a bit sloppy. Paint wasn't neat, some of the pipes in bathroom weren't replaced, condensation stain on the window blinds. Our TV didn't work right away, apparently they have the sensor to the box taped to the tv from the back so if the sensor is moved, which it was, the TV won't work. But it was a nice tv, but could be made to look better instead of having the box dangling behind it.  The room did not have a hair dryer. Breakfast was good. Your average, eggs, pancakes, sausage..goes till 10am on weekends. The rate was a bit high for all the issues. Overall I would stay here again, just because it would be this or the LQ next door as the others  in Alvin I wouldn't even stop at.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Parth P, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded November 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2017</t>
+  </si>
+  <si>
+    <t>Check in was fast and easy. Front desk girls were very polite. We get to the room and upon opening the door this smell smacks you in the face. I couldn't pinpoint if it was an old smoking room or just musty smell. Strangely enough after a while, you seem to get use to it, but trust me, we dreaded that smack in the face every time we returned to our room. I knew the hotel was booked, so didn't bother to mention,  it was so strong that something like an air freshener wouldn't have done a thing. Room was a good size, we had 2 beds and a couch. You can tell they have been renovated and while I appreciate that, it was a bit sloppy. Paint wasn't neat, some of the pipes in bathroom weren't replaced, condensation stain on the window blinds. Our TV didn't work right away, apparently they have the sensor to the box taped to the tv from the back so if the sensor is moved, which it was, the TV won't work. But it was a nice tv, but could be made to look better instead of having the box dangling behind it.  The room did not have a hair dryer. Breakfast was good. Your average, eggs, pancakes, sausage..goes till 10am on weekends. The rate was a bit high for all the issues. Overall I would stay here again, just because it would be...Check in was fast and easy. Front desk girls were very polite. We get to the room and upon opening the door this smell smacks you in the face. I couldn't pinpoint if it was an old smoking room or just musty smell. Strangely enough after a while, you seem to get use to it, but trust me, we dreaded that smack in the face every time we returned to our room. I knew the hotel was booked, so didn't bother to mention,  it was so strong that something like an air freshener wouldn't have done a thing. Room was a good size, we had 2 beds and a couch. You can tell they have been renovated and while I appreciate that, it was a bit sloppy. Paint wasn't neat, some of the pipes in bathroom weren't replaced, condensation stain on the window blinds. Our TV didn't work right away, apparently they have the sensor to the box taped to the tv from the back so if the sensor is moved, which it was, the TV won't work. But it was a nice tv, but could be made to look better instead of having the box dangling behind it.  The room did not have a hair dryer. Breakfast was good. Your average, eggs, pancakes, sausage..goes till 10am on weekends. The rate was a bit high for all the issues. Overall I would stay here again, just because it would be this or the LQ next door as the others  in Alvin I wouldn't even stop at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r482492325-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>482492325</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Under Renovation</t>
+  </si>
+  <si>
+    <t>We knew the hotel was under renovation per their website but that's an understatement. There is no lobby at all since it's covered in plastic and Sheetrock dust everywhere. But that didnt bother us at all as the lady who checked us in was very friendly and there was no wait. A couple things the rooms have Sheetrock dust still on the counters and the desk so might want to have someone wipe them down. The ac in my room was very loud more than usual and never really cooled down my room. Overall I would stay here again. There are plenty of places to eat a few minutes down the road.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Lexis M, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded May 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2017</t>
+  </si>
+  <si>
+    <t>We knew the hotel was under renovation per their website but that's an understatement. There is no lobby at all since it's covered in plastic and Sheetrock dust everywhere. But that didnt bother us at all as the lady who checked us in was very friendly and there was no wait. A couple things the rooms have Sheetrock dust still on the counters and the desk so might want to have someone wipe them down. The ac in my room was very loud more than usual and never really cooled down my room. Overall I would stay here again. There are plenty of places to eat a few minutes down the road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r475333480-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>475333480</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>How long would you wait?</t>
+  </si>
+  <si>
+    <t>So just how long should you expect to wait to check into a hotel? I mean, how long would you wait for someone to show up at the front desk if you walked in and no one was there? Any thoughts? One, two, maybe five minutes? But even five minutes is getting a little long for you to not see anyone who works in the hotel.
+Well, I waited 15 minutes. Yes, FIFTEEN minutes for someone to show up at the front desk to check me in. No, this wasn't in the middle of the night, this was about 9 pm. The phone was ringing off the hook and no one was available to check me in.
+I'd usually chalk this up to a busy hotel and not a lot of workers. Well, the fact that just this hotel was being staffed by just one employee at 9 pm is unacceptable. It's unacceptable to make a guest wait 15 minutes before seeing any signs of life at this hotel. In fact, I'd usual even forgive someone and think, "well I'm sure this is just a one-time occurrence," EXCEPT for the fact I had another guest walk by me twice as I was waiting and he commented, "I've been there, I had to wait about 15-20 minutes when I checked in this week," AND the pizza guy who walked by me twice after delivering said, "Good luck, I've delivered three pizzas...So just how long should you expect to wait to check into a hotel? I mean, how long would you wait for someone to show up at the front desk if you walked in and no one was there? Any thoughts? One, two, maybe five minutes? But even five minutes is getting a little long for you to not see anyone who works in the hotel.Well, I waited 15 minutes. Yes, FIFTEEN minutes for someone to show up at the front desk to check me in. No, this wasn't in the middle of the night, this was about 9 pm. The phone was ringing off the hook and no one was available to check me in.I'd usually chalk this up to a busy hotel and not a lot of workers. Well, the fact that just this hotel was being staffed by just one employee at 9 pm is unacceptable. It's unacceptable to make a guest wait 15 minutes before seeing any signs of life at this hotel. In fact, I'd usual even forgive someone and think, "well I'm sure this is just a one-time occurrence," EXCEPT for the fact I had another guest walk by me twice as I was waiting and he commented, "I've been there, I had to wait about 15-20 minutes when I checked in this week," AND the pizza guy who walked by me twice after delivering said, "Good luck, I've delivered three pizzas here this week and I've never seen anyone behind the counter."Oh yeah, the entire lobby was covered in plastic for renovations, you couldn't eat breakfast on site because of the construction, the couch was broken in my room, and there was no where in my room to hang my suit because of the renovations - I asked about it the next morning and apparently all the furniture isn't in yet. I'd avoid this hotel until they are completely done with construction and until the figure out how to staff properly.I have the highest status and I almost exclusively stay at IHG properties. I usually go to review the hotel with the thought in mind that I will give the property 5 stars. It takes a lot for me to drop to a 4 or a 3. So congrats for getting a 2.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lexis M, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded April 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2017</t>
+  </si>
+  <si>
+    <t>So just how long should you expect to wait to check into a hotel? I mean, how long would you wait for someone to show up at the front desk if you walked in and no one was there? Any thoughts? One, two, maybe five minutes? But even five minutes is getting a little long for you to not see anyone who works in the hotel.
+Well, I waited 15 minutes. Yes, FIFTEEN minutes for someone to show up at the front desk to check me in. No, this wasn't in the middle of the night, this was about 9 pm. The phone was ringing off the hook and no one was available to check me in.
+I'd usually chalk this up to a busy hotel and not a lot of workers. Well, the fact that just this hotel was being staffed by just one employee at 9 pm is unacceptable. It's unacceptable to make a guest wait 15 minutes before seeing any signs of life at this hotel. In fact, I'd usual even forgive someone and think, "well I'm sure this is just a one-time occurrence," EXCEPT for the fact I had another guest walk by me twice as I was waiting and he commented, "I've been there, I had to wait about 15-20 minutes when I checked in this week," AND the pizza guy who walked by me twice after delivering said, "Good luck, I've delivered three pizzas...So just how long should you expect to wait to check into a hotel? I mean, how long would you wait for someone to show up at the front desk if you walked in and no one was there? Any thoughts? One, two, maybe five minutes? But even five minutes is getting a little long for you to not see anyone who works in the hotel.Well, I waited 15 minutes. Yes, FIFTEEN minutes for someone to show up at the front desk to check me in. No, this wasn't in the middle of the night, this was about 9 pm. The phone was ringing off the hook and no one was available to check me in.I'd usually chalk this up to a busy hotel and not a lot of workers. Well, the fact that just this hotel was being staffed by just one employee at 9 pm is unacceptable. It's unacceptable to make a guest wait 15 minutes before seeing any signs of life at this hotel. In fact, I'd usual even forgive someone and think, "well I'm sure this is just a one-time occurrence," EXCEPT for the fact I had another guest walk by me twice as I was waiting and he commented, "I've been there, I had to wait about 15-20 minutes when I checked in this week," AND the pizza guy who walked by me twice after delivering said, "Good luck, I've delivered three pizzas here this week and I've never seen anyone behind the counter."Oh yeah, the entire lobby was covered in plastic for renovations, you couldn't eat breakfast on site because of the construction, the couch was broken in my room, and there was no where in my room to hang my suit because of the renovations - I asked about it the next morning and apparently all the furniture isn't in yet. I'd avoid this hotel until they are completely done with construction and until the figure out how to staff properly.I have the highest status and I almost exclusively stay at IHG properties. I usually go to review the hotel with the thought in mind that I will give the property 5 stars. It takes a lot for me to drop to a 4 or a 3. So congrats for getting a 2.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r472987949-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>472987949</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Horrible property - terrible staff</t>
+  </si>
+  <si>
+    <t>Stay somewhere else.  This property is under construction and apparently the staff graduated at the bottom of their class in Hospitality services.  The only place that wasn't a complete mess was the front desk.  However the two lady's manning that desk were too busy with their personal conversation to be bothered by a customer trying to check in.  There's no common area for coffee or breakfast and a simple sign with no directions pointing down the road to a donut shop for morning meals.  I asked for a hotel card so that I could have the address and the lady behind the counter pointed to a sign on the wall and said, "that's our address, we don't have cards".Horrible property - terrible place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lexis M, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded April 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2017</t>
+  </si>
+  <si>
+    <t>Stay somewhere else.  This property is under construction and apparently the staff graduated at the bottom of their class in Hospitality services.  The only place that wasn't a complete mess was the front desk.  However the two lady's manning that desk were too busy with their personal conversation to be bothered by a customer trying to check in.  There's no common area for coffee or breakfast and a simple sign with no directions pointing down the road to a donut shop for morning meals.  I asked for a hotel card so that I could have the address and the lady behind the counter pointed to a sign on the wall and said, "that's our address, we don't have cards".Horrible property - terrible place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r449039602-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>449039602</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>Perfectly Adequate Mid-Level Property</t>
+  </si>
+  <si>
+    <t>Stayed here for one night in preparation for business the following day in Angleton and Houston. First time. Clean, well lighted and quiet. About all one could ask for in a property of this class. Nothing particularly special here though. Breakfast was standard fare and was OK.  The "high speed" internet was completely underwhelming. It was so slow as to  be worthless. Fortunately I was on the side of the hotel that enabled me to poach off of the La Quinta's wireless from next door. The room I was in (King) was smaller than I had anticipated and in comparison to other similar properties. Getting into and out of the property is a real pain. It is located such that there are a lot of U turns involved across the fronting divided highway.Nevertheless, if I'm back this way I would not hesitate to stay here again. Provided I'm put In a room on the "correct' side of the property.Recommended.NeverthelsMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Lexis M, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded January 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for one night in preparation for business the following day in Angleton and Houston. First time. Clean, well lighted and quiet. About all one could ask for in a property of this class. Nothing particularly special here though. Breakfast was standard fare and was OK.  The "high speed" internet was completely underwhelming. It was so slow as to  be worthless. Fortunately I was on the side of the hotel that enabled me to poach off of the La Quinta's wireless from next door. The room I was in (King) was smaller than I had anticipated and in comparison to other similar properties. Getting into and out of the property is a real pain. It is located such that there are a lot of U turns involved across the fronting divided highway.Nevertheless, if I'm back this way I would not hesitate to stay here again. Provided I'm put In a room on the "correct' side of the property.Recommended.NeverthelsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r424999577-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>424999577</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>Close Proximity</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for one night. Staff was very friendly and helpful. The rooms were big, beds were comfortable, and the pool was clean. The breakfast was good - it took care of the need for a quick breakfast.  Hotel was quiet too!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Lexis M, Customer Service Representative at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded October 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2016</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for one night. Staff was very friendly and helpful. The rooms were big, beds were comfortable, and the pool was clean. The breakfast was good - it took care of the need for a quick breakfast.  Hotel was quiet too!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r415074758-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>415074758</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>The building was nice and clean.  The staff were friendly and helpful. The room was quiet.  Lighting for the mirror in the bathroom could be improved.  The lights on either side of the mirror were not very bright.  In our room, one of the two queen size beds had a large depression on top of the mattress.  The mattress should be replaced.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Olivia F, Director of Sales at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded September 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2016</t>
+  </si>
+  <si>
+    <t>The building was nice and clean.  The staff were friendly and helpful. The room was quiet.  Lighting for the mirror in the bathroom could be improved.  The lights on either side of the mirror were not very bright.  In our room, one of the two queen size beds had a large depression on top of the mattress.  The mattress should be replaced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r393367017-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>393367017</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Nice!!</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for a night. Staff was very friendly and helpful. The rooms were big, beds were comfortable, and the pool was clean. the breakfast was edible, but I wanted bacon and they had sausage patties. So we went to Diana's Grill. Great breakfast!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Paulrobertsm, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded May 9, 2018</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for a night. Staff was very friendly and helpful. The rooms were big, beds were comfortable, and the pool was clean. the breakfast was edible, but I wanted bacon and they had sausage patties. So we went to Diana's Grill. Great breakfast!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r377190187-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>377190187</t>
+  </si>
+  <si>
+    <t>05/27/2016</t>
+  </si>
+  <si>
+    <t>Pleasant stay!</t>
+  </si>
+  <si>
+    <t>I stayed in this Hotel for a night. Hotel staff was very nice. I don't remember the name of the lady at front desk but she was very supportive. Breakfast was very good and there were plenty of options like milk, cereal, pancakes, yogurt, fruits, coffee etc.  Hotel was overall clean. I saw a couple of places in room which concerned me a little but I am satisfied with the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed in this Hotel for a night. Hotel staff was very nice. I don't remember the name of the lady at front desk but she was very supportive. Breakfast was very good and there were plenty of options like milk, cereal, pancakes, yogurt, fruits, coffee etc.  Hotel was overall clean. I saw a couple of places in room which concerned me a little but I am satisfied with the stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r370921226-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>370921226</t>
+  </si>
+  <si>
+    <t>05/07/2016</t>
+  </si>
+  <si>
+    <t>Comfortable room</t>
+  </si>
+  <si>
+    <t>Lovely comfortable hotel. The room was spacious clean and bed amazing. Really cozy. The bed is very high, so if you are a shortie you may have difficulties getting in and out of it! Ceilings very high in room, so makes the room feel very light and airy.Really good breakfast on offer, hot items and lots of fruit and yoghurt. Hot cinnamon rolls are yummy.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Lovely comfortable hotel. The room was spacious clean and bed amazing. Really cozy. The bed is very high, so if you are a shortie you may have difficulties getting in and out of it! Ceilings very high in room, so makes the room feel very light and airy.Really good breakfast on offer, hot items and lots of fruit and yoghurt. Hot cinnamon rolls are yummy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r358906872-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>358906872</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>Great hotel BUT manager sucks!!</t>
+  </si>
+  <si>
+    <t>I arrived really late on a Saturday so I was going to get very little use of the room and no use of amenities like the pool, gym or free movies Etc. I called in advance to make sure they had a government discount and was told yes they did. When I was at the front desk it was almost midnight and I had trouble finding my government ID but showed the clerk my government credit card. He said his manager would not accept that for my discount. I then asked if they give Trip Advisor contributors a discount? The manager said no he didn't care about that. I had to send an employee back to the office to get my ID and was finally checked into my room at almost 1 am.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I arrived really late on a Saturday so I was going to get very little use of the room and no use of amenities like the pool, gym or free movies Etc. I called in advance to make sure they had a government discount and was told yes they did. When I was at the front desk it was almost midnight and I had trouble finding my government ID but showed the clerk my government credit card. He said his manager would not accept that for my discount. I then asked if they give Trip Advisor contributors a discount? The manager said no he didn't care about that. I had to send an employee back to the office to get my ID and was finally checked into my room at almost 1 am.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r349788863-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>349788863</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasantly surprised! </t>
+  </si>
+  <si>
+    <t>Me, my husband &amp; son stayed here for 3 nites. We were visiting my daughter who is working temporarily in Alvin &amp; also bringing my son to see Rice University in Houston. The hotel was conveniently located to both spots for us. The rooms were clean, beds were comfortable as well as the pillows. Free breakfast in the morning and delicious coffee was an added bonus! The staff all were very helpful &amp; friendly. On our last morning, we met Parth, the manager, he was inquiring how we enjoyed our stay there. When I come to visit my daughter again I will definitely be staying at this Holiday Inn! MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Me, my husband &amp; son stayed here for 3 nites. We were visiting my daughter who is working temporarily in Alvin &amp; also bringing my son to see Rice University in Houston. The hotel was conveniently located to both spots for us. The rooms were clean, beds were comfortable as well as the pillows. Free breakfast in the morning and delicious coffee was an added bonus! The staff all were very helpful &amp; friendly. On our last morning, we met Parth, the manager, he was inquiring how we enjoyed our stay there. When I come to visit my daughter again I will definitely be staying at this Holiday Inn! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r347990413-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>347990413</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>Nice place for its location</t>
+  </si>
+  <si>
+    <t>The room itself was clean and smelled good. We were on the first floor. The room looked new and pillows and bed were very comfortable. However the next morning we went out for breakfast and there was hardly a thing left. You would think that they would replenish everything that was eaten. Definitely disappointed there. The staff that was in the breakfast area just walked around and didn't acknowledge that there wasn't any food left either. We left hungry and went to eat elsewhere! MoreShow less</t>
+  </si>
+  <si>
+    <t>The room itself was clean and smelled good. We were on the first floor. The room looked new and pillows and bed were very comfortable. However the next morning we went out for breakfast and there was hardly a thing left. You would think that they would replenish everything that was eaten. Definitely disappointed there. The staff that was in the breakfast area just walked around and didn't acknowledge that there wasn't any food left either. We left hungry and went to eat elsewhere! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r327207003-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>327207003</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Good for our quick 1 night stay</t>
+  </si>
+  <si>
+    <t>We stayed here for 1 night over the weekend while visiting friends in the area.  The hotel itself is impeccably clean and inviting.  The girl at check in did not seem very happy and was not very personable unfortunately. I am a Spire Elite with IHG but I was not asked if I wanted 500 bonus points or a welcome amenity upon arrival.  She also said something about charging me in the morning for the room and when I mentioned there should be no charges because I was on an award night - she seemed confused and asked me "did you book online?".  Maybe she was having a bad day.I think this is an issue chainwide because I've had this happen before where the front desk does not understand how to process an award night reservation.As for the room - it was standard 2 queens and fine for what we needed.  It was very clean so no complaints there!One person in my party went for coffee downstairs very early in the morning before breakfast officially started and said that the lady setting it up was very nice.We will definitely be back to this hotel - as it is an excellent choice if you need to go to Alvin or any of the surrounding small towns.  There is a Chili's, Olive Garden and Starbucks across the street and it's  about 27 miles away from Galveston as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Melissa_F_AGSM, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded May 9, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here for 1 night over the weekend while visiting friends in the area.  The hotel itself is impeccably clean and inviting.  The girl at check in did not seem very happy and was not very personable unfortunately. I am a Spire Elite with IHG but I was not asked if I wanted 500 bonus points or a welcome amenity upon arrival.  She also said something about charging me in the morning for the room and when I mentioned there should be no charges because I was on an award night - she seemed confused and asked me "did you book online?".  Maybe she was having a bad day.I think this is an issue chainwide because I've had this happen before where the front desk does not understand how to process an award night reservation.As for the room - it was standard 2 queens and fine for what we needed.  It was very clean so no complaints there!One person in my party went for coffee downstairs very early in the morning before breakfast officially started and said that the lady setting it up was very nice.We will definitely be back to this hotel - as it is an excellent choice if you need to go to Alvin or any of the surrounding small towns.  There is a Chili's, Olive Garden and Starbucks across the street and it's  about 27 miles away from Galveston as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r325076876-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>325076876</t>
+  </si>
+  <si>
+    <t>11/07/2015</t>
+  </si>
+  <si>
+    <t>AWESOME!! wouldn't stay anywhere else!</t>
+  </si>
+  <si>
+    <t>Excellent hotel from the rooms to the staff, fitness room, breakfast, pool in short everything!! :) the staff is extremely helpful and friendly....I totally give this hotel 5 stars no doubt....My hotel of choice when in the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent hotel from the rooms to the staff, fitness room, breakfast, pool in short everything!! :) the staff is extremely helpful and friendly....I totally give this hotel 5 stars no doubt....My hotel of choice when in the areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r299822806-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>299822806</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>Not far from the beach and much cheaper!</t>
+  </si>
+  <si>
+    <t>Very clean. Very nice. The fitness room has 2 impressive treadmills, a bike and a stair stepper. The breakfast offered a great variety including a make your own pancake machine, cinnamon rolls, yogurts, fresh fruits, cereals. The spa/hot tub has an out of order sign, but the pool looked clean. Staff was very helpful. Will definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Very clean. Very nice. The fitness room has 2 impressive treadmills, a bike and a stair stepper. The breakfast offered a great variety including a make your own pancake machine, cinnamon rolls, yogurts, fresh fruits, cereals. The spa/hot tub has an out of order sign, but the pool looked clean. Staff was very helpful. Will definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r285525049-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>285525049</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>Nice Property, Great Staff, and A Couple of Misfires.</t>
+  </si>
+  <si>
+    <t>Our stay at the Holiday Inn Express over the July 4th weekend was nice. There are many things that this property has going for it.
+The room we had was a nice, large, comfortable, and very clean room. The television was a nice sized flat screen with DirectTV, and that was a nice surprise. The cable service included a working guide and very quick response when you channel-surfed; something that is not found in to many hotel rooms. 
+The beds are nice and comfortable with multiple pillow options.  The room also included a refrigerator and microwave oven. The lobby has a little store in it where you can buy food and other sundries.
+The bathroom was nice and roomy and included amenities from Bath and Body Works. The towels we nice, big, thirsty towels that you do not see in too many hotels. The water pressure in the shower was in perfect working order and the adjustable showerhead actually adjusted into positions that you can find useful.
+The staff here was on their “A” game. We were greeted by Patrice who informed us that she was new, but she had a good handle on checking us in. Everyone else on the staff that we dealt with were just as friendly and professional. 
+Their breakfast buffet in the beautifully-appointed “Great Room” featured a nice selection of sausage (both patties and links), biscuits and gravy, other types of breads, an automatic pancake...Our stay at the Holiday Inn Express over the July 4th weekend was nice. There are many things that this property has going for it.The room we had was a nice, large, comfortable, and very clean room. The television was a nice sized flat screen with DirectTV, and that was a nice surprise. The cable service included a working guide and very quick response when you channel-surfed; something that is not found in to many hotel rooms. The beds are nice and comfortable with multiple pillow options.  The room also included a refrigerator and microwave oven. The lobby has a little store in it where you can buy food and other sundries.The bathroom was nice and roomy and included amenities from Bath and Body Works. The towels we nice, big, thirsty towels that you do not see in too many hotels. The water pressure in the shower was in perfect working order and the adjustable showerhead actually adjusted into positions that you can find useful.The staff here was on their “A” game. We were greeted by Patrice who informed us that she was new, but she had a good handle on checking us in. Everyone else on the staff that we dealt with were just as friendly and professional. Their breakfast buffet in the beautifully-appointed “Great Room” featured a nice selection of sausage (both patties and links), biscuits and gravy, other types of breads, an automatic pancake machine that made a decent pancake, yogurts, cereals, and juices and coffee.This property has really great potential, however, there were some missteps during our visit. The pool was clean and sparkling, but the whirlpool had slimy fungus actively growing in it. First I thought it was just the color that they had chosen for the whirlpool (why green? I have no idea, but I could not believe that was fungus), but upon closer inspection – yep, green slime.I am hoping that the explanation is because it does not have a drain nor a skimmer and therefore cannot filter the water like the pool. And possibly all the rain they’ve had in this part of Texas lately is not helping keep the fungus problem under control.Something else we noticed during this visit was that the bathtub would not hold water for a bath. Even when you closed the drain, it still stayed open a little bit – just enough that you could not keep a filled tub. This was disappointing because the tub is one of those decent hotel tubs that you actually consider taking a bath in. The shape and size of it lends itself to that idea.Lastly, I must report that the wireless internet service that they offered (at least during our visit) was extremely slow and unreliable.  I ended up having to turn on the mobile hotspot on my cellphone to get any type of reliable internet service. I hated including the negative items about our stay because I really like this place. The staff is great and the accommodations are comfortable. Hopefully the property can figure out the best course of action for the whirlpool and the internet service.I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Our stay at the Holiday Inn Express over the July 4th weekend was nice. There are many things that this property has going for it.
+The room we had was a nice, large, comfortable, and very clean room. The television was a nice sized flat screen with DirectTV, and that was a nice surprise. The cable service included a working guide and very quick response when you channel-surfed; something that is not found in to many hotel rooms. 
+The beds are nice and comfortable with multiple pillow options.  The room also included a refrigerator and microwave oven. The lobby has a little store in it where you can buy food and other sundries.
+The bathroom was nice and roomy and included amenities from Bath and Body Works. The towels we nice, big, thirsty towels that you do not see in too many hotels. The water pressure in the shower was in perfect working order and the adjustable showerhead actually adjusted into positions that you can find useful.
+The staff here was on their “A” game. We were greeted by Patrice who informed us that she was new, but she had a good handle on checking us in. Everyone else on the staff that we dealt with were just as friendly and professional. 
+Their breakfast buffet in the beautifully-appointed “Great Room” featured a nice selection of sausage (both patties and links), biscuits and gravy, other types of breads, an automatic pancake...Our stay at the Holiday Inn Express over the July 4th weekend was nice. There are many things that this property has going for it.The room we had was a nice, large, comfortable, and very clean room. The television was a nice sized flat screen with DirectTV, and that was a nice surprise. The cable service included a working guide and very quick response when you channel-surfed; something that is not found in to many hotel rooms. The beds are nice and comfortable with multiple pillow options.  The room also included a refrigerator and microwave oven. The lobby has a little store in it where you can buy food and other sundries.The bathroom was nice and roomy and included amenities from Bath and Body Works. The towels we nice, big, thirsty towels that you do not see in too many hotels. The water pressure in the shower was in perfect working order and the adjustable showerhead actually adjusted into positions that you can find useful.The staff here was on their “A” game. We were greeted by Patrice who informed us that she was new, but she had a good handle on checking us in. Everyone else on the staff that we dealt with were just as friendly and professional. Their breakfast buffet in the beautifully-appointed “Great Room” featured a nice selection of sausage (both patties and links), biscuits and gravy, other types of breads, an automatic pancake machine that made a decent pancake, yogurts, cereals, and juices and coffee.This property has really great potential, however, there were some missteps during our visit. The pool was clean and sparkling, but the whirlpool had slimy fungus actively growing in it. First I thought it was just the color that they had chosen for the whirlpool (why green? I have no idea, but I could not believe that was fungus), but upon closer inspection – yep, green slime.I am hoping that the explanation is because it does not have a drain nor a skimmer and therefore cannot filter the water like the pool. And possibly all the rain they’ve had in this part of Texas lately is not helping keep the fungus problem under control.Something else we noticed during this visit was that the bathtub would not hold water for a bath. Even when you closed the drain, it still stayed open a little bit – just enough that you could not keep a filled tub. This was disappointing because the tub is one of those decent hotel tubs that you actually consider taking a bath in. The shape and size of it lends itself to that idea.Lastly, I must report that the wireless internet service that they offered (at least during our visit) was extremely slow and unreliable.  I ended up having to turn on the mobile hotspot on my cellphone to get any type of reliable internet service. I hated including the negative items about our stay because I really like this place. The staff is great and the accommodations are comfortable. Hopefully the property can figure out the best course of action for the whirlpool and the internet service.I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r282340929-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>282340929</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>Very nice.  Clean.</t>
+  </si>
+  <si>
+    <t>While no motel is perfect, this one was much better than one we had already spent one night at in Alvin.  We were so happy to be somewhere that had running hot water and working internet that we must have overlooked any negatives.  The free breakfast was really good as well.  The only thing that I think all multi-level motels should do is put more distance and sound-absorbing material between the two levels.  Oh, and when the little fridge would cycle on and off it would make the TV go blank for 2-3 seconds....not a biggie, but a tad annoying.  But otherwise, a nice stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>While no motel is perfect, this one was much better than one we had already spent one night at in Alvin.  We were so happy to be somewhere that had running hot water and working internet that we must have overlooked any negatives.  The free breakfast was really good as well.  The only thing that I think all multi-level motels should do is put more distance and sound-absorbing material between the two levels.  Oh, and when the little fridge would cycle on and off it would make the TV go blank for 2-3 seconds....not a biggie, but a tad annoying.  But otherwise, a nice stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r278633623-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>278633623</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Big rooms, nice fridge. Hairdryer blew up next to my my 5 year old, (smoking and blowing sparks) while trying to get ready for a wedding. zero sense of urgency to help find another hairdryer. I had to suggest getting the one from a room next door after waiting for maintenance to "find one". Hot tub is green and scary. You get locked out by the pool, and they can't figure out why your room key doesn't work to let you back in. Find another place in Alvin. We would've but 5 family members got rooms for the wedding block (all of us scattered across hotel, not next to each other for whatever reason). If you need zero customer service, stay here, if you expect any amount of service for your dollar - don't bother. I may expect too much since this a 2 star hotel - Why would you expect a hot tub to work or rely on a hotel hairdrier? My bad,MoreShow less</t>
+  </si>
+  <si>
+    <t>Big rooms, nice fridge. Hairdryer blew up next to my my 5 year old, (smoking and blowing sparks) while trying to get ready for a wedding. zero sense of urgency to help find another hairdryer. I had to suggest getting the one from a room next door after waiting for maintenance to "find one". Hot tub is green and scary. You get locked out by the pool, and they can't figure out why your room key doesn't work to let you back in. Find another place in Alvin. We would've but 5 family members got rooms for the wedding block (all of us scattered across hotel, not next to each other for whatever reason). If you need zero customer service, stay here, if you expect any amount of service for your dollar - don't bother. I may expect too much since this a 2 star hotel - Why would you expect a hot tub to work or rely on a hotel hairdrier? My bad,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r266876873-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>266876873</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>Facilities were great but the staff made this stay outstanding.  Natasha checked me in but the morning breakfast lady and even the grounds keepers were exceptionally friendly.  Next cruise out of Galveston, I'll definitely be staying here!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Facilities were great but the staff made this stay outstanding.  Natasha checked me in but the morning breakfast lady and even the grounds keepers were exceptionally friendly.  Next cruise out of Galveston, I'll definitely be staying here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r251477295-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>251477295</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>Great Stay close to Houston</t>
+  </si>
+  <si>
+    <t>Stayed here Jan 2015 and this hotel was practically brand new but we got a great deal. The room was easily worth 3 times as much. Its a bit out of Houston, which is exactly what we wanted. But it was centrally located to the attractions south of town in which we were interested. The room was fantastic and the service / people were immaculate.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded April 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here Jan 2015 and this hotel was practically brand new but we got a great deal. The room was easily worth 3 times as much. Its a bit out of Houston, which is exactly what we wanted. But it was centrally located to the attractions south of town in which we were interested. The room was fantastic and the service / people were immaculate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r239457210-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>239457210</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>Beautiful hotel!</t>
+  </si>
+  <si>
+    <t>I stayed here for a business trip nearby, and was immediately impressed with the decor - felt very upscale!  High ceilings, nice details, and very welcoming.The staff couldn't be more pleasant or accommodating - I have a small issue, which they immediately addressed, and addressed fully.  They were very friendly and always had a smile and a  can-do attitude!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for a business trip nearby, and was immediately impressed with the decor - felt very upscale!  High ceilings, nice details, and very welcoming.The staff couldn't be more pleasant or accommodating - I have a small issue, which they immediately addressed, and addressed fully.  They were very friendly and always had a smile and a  can-do attitude!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r214997417-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>214997417</t>
+  </si>
+  <si>
+    <t>07/12/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is newer and very nice. Very comfortable king size bed and large rooms. Just a short drive to Galveston so this is a tremendous value on hotwire.com at $67.00 a night. Staff members are well trained and very friendly and accommodating. Breakfast is nice with many options and cinnamon rolls waft through the beautiful breakfast room in the morning.  Coffee is good quality and hotel has a mini store with various snacks &amp; sundries.  The 3rd fll o r hall had a musty smell that needs to be addressed by management but didn't notice it in the room. We tried Monterey Little Mexico nearby for dinner &amp; were very pleased with food and service there as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>This hotel is newer and very nice. Very comfortable king size bed and large rooms. Just a short drive to Galveston so this is a tremendous value on hotwire.com at $67.00 a night. Staff members are well trained and very friendly and accommodating. Breakfast is nice with many options and cinnamon rolls waft through the beautiful breakfast room in the morning.  Coffee is good quality and hotel has a mini store with various snacks &amp; sundries.  The 3rd fll o r hall had a musty smell that needs to be addressed by management but didn't notice it in the room. We tried Monterey Little Mexico nearby for dinner &amp; were very pleased with food and service there as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r207571683-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>207571683</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>What a great find!</t>
+  </si>
+  <si>
+    <t>Great price, great room - I've never seen such high ceilings in a hotel before! The staff was amazing...after one night, the front desk staff knew our name and would talk to us and our 4 yr old daughter each time we passed.  Breakfast was good and hot and plentiful...very nice hotel. We will always stay here when visiting my family that lives in Alvin.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r204217440-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>204217440</t>
+  </si>
+  <si>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>Bring earplugs and hope your room doesn't smell bad. mine did.</t>
+  </si>
+  <si>
+    <t>The employees were nice, but our room smelled like someone that stayed there recently violated their no pets policy. The hotel itself and hallway smelled fine, but open up our hotel room door and get the STRONG ODOR of CAT PEE (or something like that - not pleasant).  We asked to switch rooms, but were told there were no other rooms with 2 beds available (we had 2 kids with us, so the 4 of us couldn't stay in a room with one bed).  I already prepaid for the room, so we decided to stay.  The smell was significant (not something they could not obviously notice) and they really should CLEAN the room when they discover something like this, not just rent the room to the next guest.  It just shows there was no one there that really cares.  If that weren't enough, after going to bed, things got worse.  If you check out the hotel's location on Google maps, you'll notice railroad tracks about a block away.  Well, about every hour that night, a train came through and BLEW THE TRAIN WHISTLE.  I only stayed there one night, so I don't know if this happens every night, but I HEARD SEVERAL TRAINS and their whistles that night about every hour (I'm guessing they have to blow the whistle because of a nearby intersection).  Ok, it's not the hotel's fault that I heard a fairly loud train whistle at about...The employees were nice, but our room smelled like someone that stayed there recently violated their no pets policy. The hotel itself and hallway smelled fine, but open up our hotel room door and get the STRONG ODOR of CAT PEE (or something like that - not pleasant).  We asked to switch rooms, but were told there were no other rooms with 2 beds available (we had 2 kids with us, so the 4 of us couldn't stay in a room with one bed).  I already prepaid for the room, so we decided to stay.  The smell was significant (not something they could not obviously notice) and they really should CLEAN the room when they discover something like this, not just rent the room to the next guest.  It just shows there was no one there that really cares.  If that weren't enough, after going to bed, things got worse.  If you check out the hotel's location on Google maps, you'll notice railroad tracks about a block away.  Well, about every hour that night, a train came through and BLEW THE TRAIN WHISTLE.  I only stayed there one night, so I don't know if this happens every night, but I HEARD SEVERAL TRAINS and their whistles that night about every hour (I'm guessing they have to blow the whistle because of a nearby intersection).  Ok, it's not the hotel's fault that I heard a fairly loud train whistle at about 10p, 11p, 12a, etc. while trying to sleep, but an important factor in deciding to book this hotel, so I figured I should share it.  Overall, a bad experience.  Is it too much to ask for to have a clean smelling room?MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>The employees were nice, but our room smelled like someone that stayed there recently violated their no pets policy. The hotel itself and hallway smelled fine, but open up our hotel room door and get the STRONG ODOR of CAT PEE (or something like that - not pleasant).  We asked to switch rooms, but were told there were no other rooms with 2 beds available (we had 2 kids with us, so the 4 of us couldn't stay in a room with one bed).  I already prepaid for the room, so we decided to stay.  The smell was significant (not something they could not obviously notice) and they really should CLEAN the room when they discover something like this, not just rent the room to the next guest.  It just shows there was no one there that really cares.  If that weren't enough, after going to bed, things got worse.  If you check out the hotel's location on Google maps, you'll notice railroad tracks about a block away.  Well, about every hour that night, a train came through and BLEW THE TRAIN WHISTLE.  I only stayed there one night, so I don't know if this happens every night, but I HEARD SEVERAL TRAINS and their whistles that night about every hour (I'm guessing they have to blow the whistle because of a nearby intersection).  Ok, it's not the hotel's fault that I heard a fairly loud train whistle at about...The employees were nice, but our room smelled like someone that stayed there recently violated their no pets policy. The hotel itself and hallway smelled fine, but open up our hotel room door and get the STRONG ODOR of CAT PEE (or something like that - not pleasant).  We asked to switch rooms, but were told there were no other rooms with 2 beds available (we had 2 kids with us, so the 4 of us couldn't stay in a room with one bed).  I already prepaid for the room, so we decided to stay.  The smell was significant (not something they could not obviously notice) and they really should CLEAN the room when they discover something like this, not just rent the room to the next guest.  It just shows there was no one there that really cares.  If that weren't enough, after going to bed, things got worse.  If you check out the hotel's location on Google maps, you'll notice railroad tracks about a block away.  Well, about every hour that night, a train came through and BLEW THE TRAIN WHISTLE.  I only stayed there one night, so I don't know if this happens every night, but I HEARD SEVERAL TRAINS and their whistles that night about every hour (I'm guessing they have to blow the whistle because of a nearby intersection).  Ok, it's not the hotel's fault that I heard a fairly loud train whistle at about 10p, 11p, 12a, etc. while trying to sleep, but an important factor in deciding to book this hotel, so I figured I should share it.  Overall, a bad experience.  Is it too much to ask for to have a clean smelling room?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r195877883-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>195877883</t>
+  </si>
+  <si>
+    <t>03/02/2014</t>
+  </si>
+  <si>
+    <t>Great service at modest hotel</t>
+  </si>
+  <si>
+    <t>This is a nice hotel. The staff was extremely friendly and helpful. I gave the room rating a three only because they are a little small but clean and well appointed. I was there for a wedding and the staff went above and beyond to accommodate our large party.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded March 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2014</t>
+  </si>
+  <si>
+    <t>This is a nice hotel. The staff was extremely friendly and helpful. I gave the room rating a three only because they are a little small but clean and well appointed. I was there for a wedding and the staff went above and beyond to accommodate our large party.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r190768363-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>190768363</t>
+  </si>
+  <si>
+    <t>01/13/2014</t>
+  </si>
+  <si>
+    <t>Family Illness Stay</t>
+  </si>
+  <si>
+    <t>I don't know where to begin but I will try to be brief.  My husband and I along with two of his sisters traveled to Alvin, TX the Monday before Christmas to visit his critically ill sister who had been battling lung cancer.  We spent 7 nights at the hotel and were treated so wonderful by the staff.  Taylor and all the other desk clerks and breakfast attendants asked each day how my husband's sister was doing and kept her and us in their prayers.  One of the attendants baked us a delicious loaf of Hawaiian bread.  This meant so much to us as we were always hurrying in and out to be with his sister.  The Friday after Christmas my husband's sister lost her battle with cancer.  That evening while we were out grabbing a bite to eat the attendant had the desk clerk leave a loaf of chocolate bread and some crocheted items in our room.  We were so surprised to see the bread and the handmade gift.  This was so thoughtful and lifted our spirits.  Then the following day an even more tragic event occurred.  One of my husband's other sisters hadn't been feeling well and we had to rush her to the ER.  She had contracted the H1N1 flu virus and was admitted to an area hospital.  The next day she was rushed to the ICU and put on a ventilator.  She never recovered and passed...I don't know where to begin but I will try to be brief.  My husband and I along with two of his sisters traveled to Alvin, TX the Monday before Christmas to visit his critically ill sister who had been battling lung cancer.  We spent 7 nights at the hotel and were treated so wonderful by the staff.  Taylor and all the other desk clerks and breakfast attendants asked each day how my husband's sister was doing and kept her and us in their prayers.  One of the attendants baked us a delicious loaf of Hawaiian bread.  This meant so much to us as we were always hurrying in and out to be with his sister.  The Friday after Christmas my husband's sister lost her battle with cancer.  That evening while we were out grabbing a bite to eat the attendant had the desk clerk leave a loaf of chocolate bread and some crocheted items in our room.  We were so surprised to see the bread and the handmade gift.  This was so thoughtful and lifted our spirits.  Then the following day an even more tragic event occurred.  One of my husband's other sisters hadn't been feeling well and we had to rush her to the ER.  She had contracted the H1N1 flu virus and was admitted to an area hospital.  The next day she was rushed to the ICU and put on a ventilator.  She never recovered and passed away the following Saturday morning.  We will never forget the kindness extended to us from everyone at the Holiday Inn Express in Alvin, TX in our time of sorrow.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>I don't know where to begin but I will try to be brief.  My husband and I along with two of his sisters traveled to Alvin, TX the Monday before Christmas to visit his critically ill sister who had been battling lung cancer.  We spent 7 nights at the hotel and were treated so wonderful by the staff.  Taylor and all the other desk clerks and breakfast attendants asked each day how my husband's sister was doing and kept her and us in their prayers.  One of the attendants baked us a delicious loaf of Hawaiian bread.  This meant so much to us as we were always hurrying in and out to be with his sister.  The Friday after Christmas my husband's sister lost her battle with cancer.  That evening while we were out grabbing a bite to eat the attendant had the desk clerk leave a loaf of chocolate bread and some crocheted items in our room.  We were so surprised to see the bread and the handmade gift.  This was so thoughtful and lifted our spirits.  Then the following day an even more tragic event occurred.  One of my husband's other sisters hadn't been feeling well and we had to rush her to the ER.  She had contracted the H1N1 flu virus and was admitted to an area hospital.  The next day she was rushed to the ICU and put on a ventilator.  She never recovered and passed...I don't know where to begin but I will try to be brief.  My husband and I along with two of his sisters traveled to Alvin, TX the Monday before Christmas to visit his critically ill sister who had been battling lung cancer.  We spent 7 nights at the hotel and were treated so wonderful by the staff.  Taylor and all the other desk clerks and breakfast attendants asked each day how my husband's sister was doing and kept her and us in their prayers.  One of the attendants baked us a delicious loaf of Hawaiian bread.  This meant so much to us as we were always hurrying in and out to be with his sister.  The Friday after Christmas my husband's sister lost her battle with cancer.  That evening while we were out grabbing a bite to eat the attendant had the desk clerk leave a loaf of chocolate bread and some crocheted items in our room.  We were so surprised to see the bread and the handmade gift.  This was so thoughtful and lifted our spirits.  Then the following day an even more tragic event occurred.  One of my husband's other sisters hadn't been feeling well and we had to rush her to the ER.  She had contracted the H1N1 flu virus and was admitted to an area hospital.  The next day she was rushed to the ICU and put on a ventilator.  She never recovered and passed away the following Saturday morning.  We will never forget the kindness extended to us from everyone at the Holiday Inn Express in Alvin, TX in our time of sorrow.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r187914456-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>187914456</t>
+  </si>
+  <si>
+    <t>12/17/2013</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>The hotel was very nice. Got a great rate on Hotwire.  Only complaint is the hotel was not busy when we stayed there, but after sight seeing in Galveston for the day we got back to the room and it was not made.  But they apologized and gave us goody bags and put us in a slightly upgraded room, which was nice.  It was a little confusing to get to the hotel as it did not show up on the GPS.  Not many good restaurant choices in the area.  The free breakfast was really good!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>The hotel was very nice. Got a great rate on Hotwire.  Only complaint is the hotel was not busy when we stayed there, but after sight seeing in Galveston for the day we got back to the room and it was not made.  But they apologized and gave us goody bags and put us in a slightly upgraded room, which was nice.  It was a little confusing to get to the hotel as it did not show up on the GPS.  Not many good restaurant choices in the area.  The free breakfast was really good!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r181015934-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>181015934</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>wedding day stay</t>
+  </si>
+  <si>
+    <t>my niece got married on oct 12, 2013 and she choose this hotel for us to stay... it was a great choice...the people at the desk were very helpful in directing us to where we wanted to go.  the hotel was fairly new, it seemed...beds...super comfortable..was close to kemah...where there is so much to see, do and eat...MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded October 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2013</t>
+  </si>
+  <si>
+    <t>my niece got married on oct 12, 2013 and she choose this hotel for us to stay... it was a great choice...the people at the desk were very helpful in directing us to where we wanted to go.  the hotel was fairly new, it seemed...beds...super comfortable..was close to kemah...where there is so much to see, do and eat...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r179480022-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>179480022</t>
+  </si>
+  <si>
+    <t>10/02/2013</t>
+  </si>
+  <si>
+    <t>Value - Business Travel</t>
+  </si>
+  <si>
+    <t>On business trip to the Houston-Alvin area, my experience with this Holiday Inn Express:  great value, professional staff, and perfect for my business travel needs.  Morning breakfast, coffee, and juice comes with the price -- as did my wifi.  Nice bookend to my check-in that included a light snack.  Good deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>On business trip to the Houston-Alvin area, my experience with this Holiday Inn Express:  great value, professional staff, and perfect for my business travel needs.  Morning breakfast, coffee, and juice comes with the price -- as did my wifi.  Nice bookend to my check-in that included a light snack.  Good deal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r179359241-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>179359241</t>
+  </si>
+  <si>
+    <t>10/01/2013</t>
+  </si>
+  <si>
+    <t>Nice bed, good place, good customer service</t>
+  </si>
+  <si>
+    <t>needed a place to sleep for the night, came in late, overnight desk person was very nice. he even gave me a goodie bag of chips, etc because i said i was hungry and didn't want to leave the property. large rooms, good a/c, very decent breakfast. would stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>needed a place to sleep for the night, came in late, overnight desk person was very nice. he even gave me a goodie bag of chips, etc because i said i was hungry and didn't want to leave the property. large rooms, good a/c, very decent breakfast. would stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r170556825-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>170556825</t>
+  </si>
+  <si>
+    <t>08/03/2013</t>
+  </si>
+  <si>
+    <t>Big rooms with a little noise issue</t>
+  </si>
+  <si>
+    <t>Overall the room was very nice. Ours had 10' tall ceilings and plenty of room for the family. In the morning the room above became quite loud. We could hear every step and the water draining. It wasn't enough to wake me but it might bother a light sleeper. MoreShow less</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded August 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2013</t>
+  </si>
+  <si>
+    <t>Overall the room was very nice. Ours had 10' tall ceilings and plenty of room for the family. In the morning the room above became quite loud. We could hear every step and the water draining. It wasn't enough to wake me but it might bother a light sleeper. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r167863107-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>167863107</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>Love it!!!</t>
+  </si>
+  <si>
+    <t>This Hotel is the friendliest ever. The staff was unbelievable. The rooms were very clean and the bed was comfortable. Can't say this about some hotels. I would stay here again when I am back in the neighborhood. I am actually at the hotel now. No complaints at all!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded July 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2013</t>
+  </si>
+  <si>
+    <t>This Hotel is the friendliest ever. The staff was unbelievable. The rooms were very clean and the bed was comfortable. Can't say this about some hotels. I would stay here again when I am back in the neighborhood. I am actually at the hotel now. No complaints at all!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r167733316-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>167733316</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Top-notch service</t>
+  </si>
+  <si>
+    <t>My girlfriend and I stayed at the Holiday Inn Express July 8th, 2013 and from the moment we entered we had exceptional service. Cheryl, the General Manager, greeted us after we returned from sight-seeing in Galveston to let us know about free Papa Johns pizza and beer in the lounge starting at 5:00 p.m. I have stayed at more expensive Marriot's in the Texas Medical Center of Houston and not had near the top-notch service or comparable room accomodations. We were impressed with the thinking outside of the box offerings at the Alvin Holiday Inn Express. We were told they do three  free meals each week on Mondays, Tuesdays and Thursdays. I am a holiday Inn Express convert and will no longer be staying at overrated expensive Marriot hotels.Thank you for a great hotel visit Cheryl.All the best,Brett O.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded July 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2013</t>
+  </si>
+  <si>
+    <t>My girlfriend and I stayed at the Holiday Inn Express July 8th, 2013 and from the moment we entered we had exceptional service. Cheryl, the General Manager, greeted us after we returned from sight-seeing in Galveston to let us know about free Papa Johns pizza and beer in the lounge starting at 5:00 p.m. I have stayed at more expensive Marriot's in the Texas Medical Center of Houston and not had near the top-notch service or comparable room accomodations. We were impressed with the thinking outside of the box offerings at the Alvin Holiday Inn Express. We were told they do three  free meals each week on Mondays, Tuesdays and Thursdays. I am a holiday Inn Express convert and will no longer be staying at overrated expensive Marriot hotels.Thank you for a great hotel visit Cheryl.All the best,Brett O.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r159248806-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>159248806</t>
+  </si>
+  <si>
+    <t>04/30/2013</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>We were there for two nights.  The staff was wonderful, the facilities were immaculately clean and the food was delicious.  I am a school principal, my daughter is a teacher and we will not make comments unless the stay is worthy of our time and energy.  First, Cheryl Williams is to be commended for the leadership she  exhibits in her management of this location. She is in- tune with the staff and the guests.  She is out and about in her hotel and knows what is going on at her location.  She gets to know the guests and inquires of their needs personally.  She listens attentively and follows through with guest requests.  The facility is immaculate and pristine.  The AC works and the rooms are well stocked with towels and toilet items. 
+Cheryl is an exceptional manager.  Don't think I'm just saying that because she's personable.  We stayed at a Holiday Inn last June in Dallas and it was horrible.  The manager just shined us on when we complained.  Cheryl Williams is an excellent manager and she deserves recognition from her administrators.  She's a keeper!
+Now, for the food.  Kudos to the manager of the breakfast presentation.  The food was delicious, hot and well presented.  You didn't have to wait for the food platters to be re-filled.  It was done promptly and professionally.  You should be very proud of your dining staff and all who contribute to its success. This...We were there for two nights.  The staff was wonderful, the facilities were immaculately clean and the food was delicious.  I am a school principal, my daughter is a teacher and we will not make comments unless the stay is worthy of our time and energy.  First, Cheryl Williams is to be commended for the leadership she  exhibits in her management of this location. She is in- tune with the staff and the guests.  She is out and about in her hotel and knows what is going on at her location.  She gets to know the guests and inquires of their needs personally.  She listens attentively and follows through with guest requests.  The facility is immaculate and pristine.  The AC works and the rooms are well stocked with towels and toilet items. Cheryl is an exceptional manager.  Don't think I'm just saying that because she's personable.  We stayed at a Holiday Inn last June in Dallas and it was horrible.  The manager just shined us on when we complained.  Cheryl Williams is an excellent manager and she deserves recognition from her administrators.  She's a keeper!Now, for the food.  Kudos to the manager of the breakfast presentation.  The food was delicious, hot and well presented.  You didn't have to wait for the food platters to be re-filled.  It was done promptly and professionally.  You should be very proud of your dining staff and all who contribute to its success. This is an awesome hotel and should be a top choice in your search for a great place to stay in the Alvin area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded May 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2013</t>
+  </si>
+  <si>
+    <t>We were there for two nights.  The staff was wonderful, the facilities were immaculately clean and the food was delicious.  I am a school principal, my daughter is a teacher and we will not make comments unless the stay is worthy of our time and energy.  First, Cheryl Williams is to be commended for the leadership she  exhibits in her management of this location. She is in- tune with the staff and the guests.  She is out and about in her hotel and knows what is going on at her location.  She gets to know the guests and inquires of their needs personally.  She listens attentively and follows through with guest requests.  The facility is immaculate and pristine.  The AC works and the rooms are well stocked with towels and toilet items. 
+Cheryl is an exceptional manager.  Don't think I'm just saying that because she's personable.  We stayed at a Holiday Inn last June in Dallas and it was horrible.  The manager just shined us on when we complained.  Cheryl Williams is an excellent manager and she deserves recognition from her administrators.  She's a keeper!
+Now, for the food.  Kudos to the manager of the breakfast presentation.  The food was delicious, hot and well presented.  You didn't have to wait for the food platters to be re-filled.  It was done promptly and professionally.  You should be very proud of your dining staff and all who contribute to its success. This...We were there for two nights.  The staff was wonderful, the facilities were immaculately clean and the food was delicious.  I am a school principal, my daughter is a teacher and we will not make comments unless the stay is worthy of our time and energy.  First, Cheryl Williams is to be commended for the leadership she  exhibits in her management of this location. She is in- tune with the staff and the guests.  She is out and about in her hotel and knows what is going on at her location.  She gets to know the guests and inquires of their needs personally.  She listens attentively and follows through with guest requests.  The facility is immaculate and pristine.  The AC works and the rooms are well stocked with towels and toilet items. Cheryl is an exceptional manager.  Don't think I'm just saying that because she's personable.  We stayed at a Holiday Inn last June in Dallas and it was horrible.  The manager just shined us on when we complained.  Cheryl Williams is an excellent manager and she deserves recognition from her administrators.  She's a keeper!Now, for the food.  Kudos to the manager of the breakfast presentation.  The food was delicious, hot and well presented.  You didn't have to wait for the food platters to be re-filled.  It was done promptly and professionally.  You should be very proud of your dining staff and all who contribute to its success. This is an awesome hotel and should be a top choice in your search for a great place to stay in the Alvin area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r155520732-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>155520732</t>
+  </si>
+  <si>
+    <t>03/24/2013</t>
+  </si>
+  <si>
+    <t>Very nice!</t>
+  </si>
+  <si>
+    <t>The room was very nice, clean, awesome bed and TV, very nice bathroom.  The staff was pretty nice, although I had an issue with them putting a hold on my debit card and not explaining that this was in case of incidentals.  I have no problem with that, but would have like to have had some information on it.  Otherwise the staff was very friendly and helpful, the breakfast was good.  Would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>The room was very nice, clean, awesome bed and TV, very nice bathroom.  The staff was pretty nice, although I had an issue with them putting a hold on my debit card and not explaining that this was in case of incidentals.  I have no problem with that, but would have like to have had some information on it.  Otherwise the staff was very friendly and helpful, the breakfast was good.  Would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r152741538-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>152741538</t>
+  </si>
+  <si>
+    <t>02/21/2013</t>
+  </si>
+  <si>
+    <t>I felt very taken care of by staff</t>
+  </si>
+  <si>
+    <t>The staff were all great during our 2 week plus stay for work.  Just about anything we need or forgot the had availible to us.  Breakfast was pretty good.  Hannah was particularly tentative and i feel the company shold do all they can to keep her on staff.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Cheryl W, Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded February 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2013</t>
+  </si>
+  <si>
+    <t>The staff were all great during our 2 week plus stay for work.  Just about anything we need or forgot the had availible to us.  Breakfast was pretty good.  Hannah was particularly tentative and i feel the company shold do all they can to keep her on staff.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r146255721-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>146255721</t>
+  </si>
+  <si>
+    <t>11/26/2012</t>
+  </si>
+  <si>
+    <t>Excellent property. Loved it.</t>
+  </si>
+  <si>
+    <t>We stayed here for 5 days recently on a trip to the Houston area. Alvin is a small town a bit out of the way (which can be nice) but not too far from both downtown Houston and Galveston beach.
+The hotel is very clean with a nice little pool and hot tub outside. The free breakfast was fantastic and features the usual Holiday Inn Express items such as fresh made pancakes, eggs, biscuits, gravy, etc. Free wireless internet was also an unexpected plus. There is a small but adequate gym as well as a business center with two PC's. From the front desk to the ladies preparing breakfast, everyone was extremely friendly.
+We stayed in room 101 which is the first room off the lobby and a handicap room. The bathroom was HUGE (probably because of the room type). The only complaint here is that the shower is a roll in type. Because of this the bathroom floor flooded every time we took a shower. Not a big deal, just a small inconvenience. The room itself was big with a nice 32" LCD TV. Like a few other properties I've stayed at, while there is a nice HD TV in the room, the channels are not in HD and look terrible. The channel selection was also not very good. Again this is just a minor complaint. I should also note that the beds are super comfortable.
+There are a...We stayed here for 5 days recently on a trip to the Houston area. Alvin is a small town a bit out of the way (which can be nice) but not too far from both downtown Houston and Galveston beach.The hotel is very clean with a nice little pool and hot tub outside. The free breakfast was fantastic and features the usual Holiday Inn Express items such as fresh made pancakes, eggs, biscuits, gravy, etc. Free wireless internet was also an unexpected plus. There is a small but adequate gym as well as a business center with two PC's. From the front desk to the ladies preparing breakfast, everyone was extremely friendly.We stayed in room 101 which is the first room off the lobby and a handicap room. The bathroom was HUGE (probably because of the room type). The only complaint here is that the shower is a roll in type. Because of this the bathroom floor flooded every time we took a shower. Not a big deal, just a small inconvenience. The room itself was big with a nice 32" LCD TV. Like a few other properties I've stayed at, while there is a nice HD TV in the room, the channels are not in HD and look terrible. The channel selection was also not very good. Again this is just a minor complaint. I should also note that the beds are super comfortable.There are a number of good places in the area to eat as well as a Walmart just minutes away.Overall experience was great and would definitely stay here again given the chance.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded December 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2012</t>
+  </si>
+  <si>
+    <t>We stayed here for 5 days recently on a trip to the Houston area. Alvin is a small town a bit out of the way (which can be nice) but not too far from both downtown Houston and Galveston beach.
+The hotel is very clean with a nice little pool and hot tub outside. The free breakfast was fantastic and features the usual Holiday Inn Express items such as fresh made pancakes, eggs, biscuits, gravy, etc. Free wireless internet was also an unexpected plus. There is a small but adequate gym as well as a business center with two PC's. From the front desk to the ladies preparing breakfast, everyone was extremely friendly.
+We stayed in room 101 which is the first room off the lobby and a handicap room. The bathroom was HUGE (probably because of the room type). The only complaint here is that the shower is a roll in type. Because of this the bathroom floor flooded every time we took a shower. Not a big deal, just a small inconvenience. The room itself was big with a nice 32" LCD TV. Like a few other properties I've stayed at, while there is a nice HD TV in the room, the channels are not in HD and look terrible. The channel selection was also not very good. Again this is just a minor complaint. I should also note that the beds are super comfortable.
+There are a...We stayed here for 5 days recently on a trip to the Houston area. Alvin is a small town a bit out of the way (which can be nice) but not too far from both downtown Houston and Galveston beach.The hotel is very clean with a nice little pool and hot tub outside. The free breakfast was fantastic and features the usual Holiday Inn Express items such as fresh made pancakes, eggs, biscuits, gravy, etc. Free wireless internet was also an unexpected plus. There is a small but adequate gym as well as a business center with two PC's. From the front desk to the ladies preparing breakfast, everyone was extremely friendly.We stayed in room 101 which is the first room off the lobby and a handicap room. The bathroom was HUGE (probably because of the room type). The only complaint here is that the shower is a roll in type. Because of this the bathroom floor flooded every time we took a shower. Not a big deal, just a small inconvenience. The room itself was big with a nice 32" LCD TV. Like a few other properties I've stayed at, while there is a nice HD TV in the room, the channels are not in HD and look terrible. The channel selection was also not very good. Again this is just a minor complaint. I should also note that the beds are super comfortable.There are a number of good places in the area to eat as well as a Walmart just minutes away.Overall experience was great and would definitely stay here again given the chance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r145330308-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>145330308</t>
+  </si>
+  <si>
+    <t>11/13/2012</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel, not too far from Galveston</t>
+  </si>
+  <si>
+    <t>We decided we wanted to go to Galveston, during the July 4th weekend, about a week before we wanted to go. Many hotels there were already booked &amp; those that werent were simply out of the range we wanted to pay. This hotel is only around 30 minutes away. It appears to be very new. The lobby was nice and spacious as was the breakfast area. The breakfast selection was decent &amp; the food was comparatively good. The rooms were large, nicely decorated &amp; clean. Very comfortable beds. Staff was very friendly any time we interacted with them. This is a nice little hotel &amp; I would recommend it to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded February 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2013</t>
+  </si>
+  <si>
+    <t>We decided we wanted to go to Galveston, during the July 4th weekend, about a week before we wanted to go. Many hotels there were already booked &amp; those that werent were simply out of the range we wanted to pay. This hotel is only around 30 minutes away. It appears to be very new. The lobby was nice and spacious as was the breakfast area. The breakfast selection was decent &amp; the food was comparatively good. The rooms were large, nicely decorated &amp; clean. Very comfortable beds. Staff was very friendly any time we interacted with them. This is a nice little hotel &amp; I would recommend it to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r144894678-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>144894678</t>
+  </si>
+  <si>
+    <t>11/07/2012</t>
+  </si>
+  <si>
+    <t>A good choice, half-way between Houston and Galveston.</t>
+  </si>
+  <si>
+    <t>The lobby makes a good first impression, with tile and wood accents. Reception staff are friendly and helpful. The room itself was large, with high ceilings. It was also clean, modern, and nicely furnished. The interstate is just outside, but it was surprisingly quiet inside with regard to traffic. On the other hand, we heard a lot of noise from people walking around upstairs. The bathroom was also large, with new tiles and fixtures, and a jacuzzi tub. Unfortunately, the air conditioning choices were either full-blast cold, or nothing. Breakfast was also included, with all the usual selections, and served in a large, comfortable dining room.One tip: "Joe's Bar-B-Q" is just a couple of blocks away (ask for directions from the staff).  It's a great place for dinner with lots of real Texas atmosphere; we liked it so much we ate there two nights in a row.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>The lobby makes a good first impression, with tile and wood accents. Reception staff are friendly and helpful. The room itself was large, with high ceilings. It was also clean, modern, and nicely furnished. The interstate is just outside, but it was surprisingly quiet inside with regard to traffic. On the other hand, we heard a lot of noise from people walking around upstairs. The bathroom was also large, with new tiles and fixtures, and a jacuzzi tub. Unfortunately, the air conditioning choices were either full-blast cold, or nothing. Breakfast was also included, with all the usual selections, and served in a large, comfortable dining room.One tip: "Joe's Bar-B-Q" is just a couple of blocks away (ask for directions from the staff).  It's a great place for dinner with lots of real Texas atmosphere; we liked it so much we ate there two nights in a row.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r140443580-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>140443580</t>
+  </si>
+  <si>
+    <t>09/16/2012</t>
+  </si>
+  <si>
+    <t>Great service.</t>
+  </si>
+  <si>
+    <t>Very good customer service.  Very clean room.  Only complaint, hot tub heater was not working.  Great breakfast, and attendant at breakfast was very helpful.  I'd recommend this hotel, and I'm very picky.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded October 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2012</t>
+  </si>
+  <si>
+    <t>Very good customer service.  Very clean room.  Only complaint, hot tub heater was not working.  Great breakfast, and attendant at breakfast was very helpful.  I'd recommend this hotel, and I'm very picky.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r138556643-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>138556643</t>
+  </si>
+  <si>
+    <t>08/27/2012</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay!</t>
+  </si>
+  <si>
+    <t>We stayed here just this past weekend.  We had a planned trip to go to Moody Gardens and Galveston Beach but did not want to stay on the island due to VERY HIGH hotel prices and decided to stay in Alvin.  What a wonderful hotel!! Very clean, very nice staff, and a great breakfast!  All the staff members were very friendly and were also friendly to my 1 yr old son.  The breakfast had lots to choose from including eggs, meat and even a fancy pancake maker!  We will definitely stay here again when going to Galveston!  Thanks for such wonderful service!</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r135213084-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>135213084</t>
+  </si>
+  <si>
+    <t>07/23/2012</t>
+  </si>
+  <si>
+    <t>nice place to stay</t>
+  </si>
+  <si>
+    <t>We stayed here for our weekend vacation to Galveston.  It's a 30 minute drive to the island, so it was no biggie, we planned for drive time :)  The front desk staff was excellent - very helpful - even printed out directions to our destination.  We reserved a standard room with two queen beds.  Next time we will opt for a double queen suite; with our family of 5 it was a little tight.  The room was clean, and had no signs of having been smoked in.  The beds were comfortable, as were the pillows.  The bathroom was clean as well and they provided the basic toiletries- soap, lotion, shampoo, conditioner, as well as mouthwash.  The towels were fluffy, and new.  The bathtub drain leaked just a little bit, but not so much that you couldn't enjoy your bath.  The water got really hot which is a plus for me!  The swimming pool was small, but our kids still had fun.  The hot tub was out of service, the heater was broken, but hey, it's Texas.  Who needs a hot tub? LOL!  The breakfast choices were average - donuts, muffins, bananas, bagels, cereal, eggs, sausage, biscuits and gravy, toast, juices and coffee.  The food was average; the coffee was good.  If you happen to forget anything (like I forgot the baby's bag at home-yikes! lol) there is a Wal-Mart super center right down the road that is open 24 hours....We stayed here for our weekend vacation to Galveston.  It's a 30 minute drive to the island, so it was no biggie, we planned for drive time :)  The front desk staff was excellent - very helpful - even printed out directions to our destination.  We reserved a standard room with two queen beds.  Next time we will opt for a double queen suite; with our family of 5 it was a little tight.  The room was clean, and had no signs of having been smoked in.  The beds were comfortable, as were the pillows.  The bathroom was clean as well and they provided the basic toiletries- soap, lotion, shampoo, conditioner, as well as mouthwash.  The towels were fluffy, and new.  The bathtub drain leaked just a little bit, but not so much that you couldn't enjoy your bath.  The water got really hot which is a plus for me!  The swimming pool was small, but our kids still had fun.  The hot tub was out of service, the heater was broken, but hey, it's Texas.  Who needs a hot tub? LOL!  The breakfast choices were average - donuts, muffins, bananas, bagels, cereal, eggs, sausage, biscuits and gravy, toast, juices and coffee.  The food was average; the coffee was good.  If you happen to forget anything (like I forgot the baby's bag at home-yikes! lol) there is a Wal-Mart super center right down the road that is open 24 hours.  All in all we would stay there again if given the chance.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded March 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here for our weekend vacation to Galveston.  It's a 30 minute drive to the island, so it was no biggie, we planned for drive time :)  The front desk staff was excellent - very helpful - even printed out directions to our destination.  We reserved a standard room with two queen beds.  Next time we will opt for a double queen suite; with our family of 5 it was a little tight.  The room was clean, and had no signs of having been smoked in.  The beds were comfortable, as were the pillows.  The bathroom was clean as well and they provided the basic toiletries- soap, lotion, shampoo, conditioner, as well as mouthwash.  The towels were fluffy, and new.  The bathtub drain leaked just a little bit, but not so much that you couldn't enjoy your bath.  The water got really hot which is a plus for me!  The swimming pool was small, but our kids still had fun.  The hot tub was out of service, the heater was broken, but hey, it's Texas.  Who needs a hot tub? LOL!  The breakfast choices were average - donuts, muffins, bananas, bagels, cereal, eggs, sausage, biscuits and gravy, toast, juices and coffee.  The food was average; the coffee was good.  If you happen to forget anything (like I forgot the baby's bag at home-yikes! lol) there is a Wal-Mart super center right down the road that is open 24 hours....We stayed here for our weekend vacation to Galveston.  It's a 30 minute drive to the island, so it was no biggie, we planned for drive time :)  The front desk staff was excellent - very helpful - even printed out directions to our destination.  We reserved a standard room with two queen beds.  Next time we will opt for a double queen suite; with our family of 5 it was a little tight.  The room was clean, and had no signs of having been smoked in.  The beds were comfortable, as were the pillows.  The bathroom was clean as well and they provided the basic toiletries- soap, lotion, shampoo, conditioner, as well as mouthwash.  The towels were fluffy, and new.  The bathtub drain leaked just a little bit, but not so much that you couldn't enjoy your bath.  The water got really hot which is a plus for me!  The swimming pool was small, but our kids still had fun.  The hot tub was out of service, the heater was broken, but hey, it's Texas.  Who needs a hot tub? LOL!  The breakfast choices were average - donuts, muffins, bananas, bagels, cereal, eggs, sausage, biscuits and gravy, toast, juices and coffee.  The food was average; the coffee was good.  If you happen to forget anything (like I forgot the baby's bag at home-yikes! lol) there is a Wal-Mart super center right down the road that is open 24 hours.  All in all we would stay there again if given the chance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r120387075-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>120387075</t>
+  </si>
+  <si>
+    <t>11/09/2011</t>
+  </si>
+  <si>
+    <t>Overnite stay-We WILL be back when visiting down in Alvin area</t>
+  </si>
+  <si>
+    <t>We went down for a day trip to Kemah.I have wanted to go to Alvin and suprise a friend of my that owns Tommaso's Italian Grill and Seafood-Stopped by for hand tossed pizza and a few beers!!!-We went by and see if they had any rooms-Yes sir,we have a great room for you and your family!!!-Very nice staff!!!-Check in quick and easy,We went up to our room,this is a very nice and BIG room.soft beds and a pull out for the kids.Nice clean bathroom!!we got a good nite sleep.My boy and i went to go "check out the breakfast area"~Nice this is a BIG fresh breakfast!!!!Lots of fresh food and hot good breakfast!!!-overall nice,new CLEAN hotel.When we go back hands down this IS the PLACE TO STAY!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>We went down for a day trip to Kemah.I have wanted to go to Alvin and suprise a friend of my that owns Tommaso's Italian Grill and Seafood-Stopped by for hand tossed pizza and a few beers!!!-We went by and see if they had any rooms-Yes sir,we have a great room for you and your family!!!-Very nice staff!!!-Check in quick and easy,We went up to our room,this is a very nice and BIG room.soft beds and a pull out for the kids.Nice clean bathroom!!we got a good nite sleep.My boy and i went to go "check out the breakfast area"~Nice this is a BIG fresh breakfast!!!!Lots of fresh food and hot good breakfast!!!-overall nice,new CLEAN hotel.When we go back hands down this IS the PLACE TO STAY!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r114113590-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>114113590</t>
+  </si>
+  <si>
+    <t>06/17/2011</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We chose this hotel for our Galveston vacation since we previously lived in Alvin for a couple of years and knew our way around town and didn't want to pay the hotel prices in Galveston. This was by far the best hotel we've ever stayed in. Check in and check out was fast. When we got to our room, the air conditioning was already on and the room was quite cool. The hotel and the pool area is kept very clean. The breakfast was good as far as free breakfast goes. The omelets look and taste like they're from Schwans and the orange juice was a bit watery, but it was good and edible. Another reviewer said to ask for a room that doesn't face the road. I totally agree with that! It seemed like each morning around 5:00 am a very loud motorcycle went through the parking lot or on the road right out front and woke me up.I would recommend this hotel to anyone. We were going to the San Jacinto Monument, but weren't quite sure how to get there. I asked a lady at the front desk for directions and she printed them from Mapquest for me without. The staff was helpful and they were always smiling.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>We chose this hotel for our Galveston vacation since we previously lived in Alvin for a couple of years and knew our way around town and didn't want to pay the hotel prices in Galveston. This was by far the best hotel we've ever stayed in. Check in and check out was fast. When we got to our room, the air conditioning was already on and the room was quite cool. The hotel and the pool area is kept very clean. The breakfast was good as far as free breakfast goes. The omelets look and taste like they're from Schwans and the orange juice was a bit watery, but it was good and edible. Another reviewer said to ask for a room that doesn't face the road. I totally agree with that! It seemed like each morning around 5:00 am a very loud motorcycle went through the parking lot or on the road right out front and woke me up.I would recommend this hotel to anyone. We were going to the San Jacinto Monument, but weren't quite sure how to get there. I asked a lady at the front desk for directions and she printed them from Mapquest for me without. The staff was helpful and they were always smiling.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r108207104-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>108207104</t>
+  </si>
+  <si>
+    <t>05/14/2011</t>
+  </si>
+  <si>
+    <t>Newest, cleanest hotel in Alvin.  Very nice.</t>
+  </si>
+  <si>
+    <t>It's a Holiday Inn Express, so you kind of know what you are getting here, but I found this to be one of the nicest I've stayed in. It's brand new (I felt like I might be the first person to ever stay in my room) and well appointed with lots of modern fixtures.  Very quiet, good breakfast in the morning.  For a small town like Alvin, it's perfect and gets the job done.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r79910317-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>79910317</t>
+  </si>
+  <si>
+    <t>09/17/2010</t>
+  </si>
+  <si>
+    <t>Excellent.</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at this hotel. I would urge you to by pass all other hotels in Alvin and spend the extra money. You will not be disappointed.</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r73441752-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>73441752</t>
+  </si>
+  <si>
+    <t>08/02/2010</t>
+  </si>
+  <si>
+    <t>Great Hotel &amp; Staff</t>
+  </si>
+  <si>
+    <t>This hotel was great! The staff was very friendly and helpful. They pool is wonderful! My son loved how the spa and pool changed colors. The rooms were very clean and the beds were super wonderful. We needed two rooms and they accommodated us perfectly. They even had games and puzzles in the roomy breakfast room. The lobby was inviting with mints, cookies and fruit water. The hot breakfast was great! Overall this was a great hotel and only about 20-30 minutes from the seawall. The fitness center was awesome.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r53968797-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>53968797</t>
+  </si>
+  <si>
+    <t>01/20/2010</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel!!</t>
+  </si>
+  <si>
+    <t>I absolutely loved this hotel!! I have family in Alvin and I was so happy to hear that they built this brand new hotel!! It is so beautiful!! I dont know why they built this hotel in Alvin of all places but Im sure glad they did so that when I come back I'll have this wonderful place to stay at!! And the best thing of all was that they have great staff who actually looks professional and is friendly and inviting!! Thank You Alvin for finally having something nice to come to!!</t>
+  </si>
+  <si>
+    <t>December 2009</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1816,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1848,3673 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O12" t="s">
+        <v>108</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>143</v>
+      </c>
+      <c r="X12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>152</v>
+      </c>
+      <c r="X13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" t="s">
+        <v>108</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>161</v>
+      </c>
+      <c r="X14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s">
+        <v>167</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>161</v>
+      </c>
+      <c r="X15" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>174</v>
+      </c>
+      <c r="O16" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>161</v>
+      </c>
+      <c r="X16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>181</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>161</v>
+      </c>
+      <c r="X17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>188</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>161</v>
+      </c>
+      <c r="X18" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" t="s">
+        <v>192</v>
+      </c>
+      <c r="K19" t="s">
+        <v>193</v>
+      </c>
+      <c r="L19" t="s">
+        <v>194</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>188</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>161</v>
+      </c>
+      <c r="X19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" t="s">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>202</v>
+      </c>
+      <c r="X20" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" t="s">
+        <v>206</v>
+      </c>
+      <c r="K21" t="s">
+        <v>207</v>
+      </c>
+      <c r="L21" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>201</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>202</v>
+      </c>
+      <c r="X21" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>215</v>
+      </c>
+      <c r="O22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>202</v>
+      </c>
+      <c r="X22" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" t="s">
+        <v>219</v>
+      </c>
+      <c r="K23" t="s">
+        <v>220</v>
+      </c>
+      <c r="L23" t="s">
+        <v>221</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>222</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>202</v>
+      </c>
+      <c r="X23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>225</v>
+      </c>
+      <c r="J24" t="s">
+        <v>226</v>
+      </c>
+      <c r="K24" t="s">
+        <v>227</v>
+      </c>
+      <c r="L24" t="s">
+        <v>228</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>229</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>202</v>
+      </c>
+      <c r="X24" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>232</v>
+      </c>
+      <c r="J25" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" t="s">
+        <v>234</v>
+      </c>
+      <c r="L25" t="s">
+        <v>235</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>229</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>202</v>
+      </c>
+      <c r="X25" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>237</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>238</v>
+      </c>
+      <c r="J26" t="s">
+        <v>239</v>
+      </c>
+      <c r="K26" t="s">
+        <v>240</v>
+      </c>
+      <c r="L26" t="s">
+        <v>241</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>242</v>
+      </c>
+      <c r="O26" t="s">
+        <v>108</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>243</v>
+      </c>
+      <c r="X26" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>246</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>247</v>
+      </c>
+      <c r="J27" t="s">
+        <v>248</v>
+      </c>
+      <c r="K27" t="s">
+        <v>249</v>
+      </c>
+      <c r="L27" t="s">
+        <v>250</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>251</v>
+      </c>
+      <c r="O27" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>252</v>
+      </c>
+      <c r="X27" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>255</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>256</v>
+      </c>
+      <c r="J28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K28" t="s">
+        <v>258</v>
+      </c>
+      <c r="L28" t="s">
+        <v>259</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>260</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>252</v>
+      </c>
+      <c r="X28" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>263</v>
+      </c>
+      <c r="J29" t="s">
+        <v>264</v>
+      </c>
+      <c r="K29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L29" t="s">
+        <v>266</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>267</v>
+      </c>
+      <c r="O29" t="s">
+        <v>108</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>252</v>
+      </c>
+      <c r="X29" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>269</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J30" t="s">
+        <v>271</v>
+      </c>
+      <c r="K30" t="s">
+        <v>272</v>
+      </c>
+      <c r="L30" t="s">
+        <v>273</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>274</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>275</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>276</v>
+      </c>
+      <c r="J31" t="s">
+        <v>277</v>
+      </c>
+      <c r="K31" t="s">
+        <v>278</v>
+      </c>
+      <c r="L31" t="s">
+        <v>279</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>280</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>282</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>283</v>
+      </c>
+      <c r="J32" t="s">
+        <v>284</v>
+      </c>
+      <c r="K32" t="s">
+        <v>285</v>
+      </c>
+      <c r="L32" t="s">
+        <v>286</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>287</v>
+      </c>
+      <c r="X32" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>290</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>291</v>
+      </c>
+      <c r="J33" t="s">
+        <v>292</v>
+      </c>
+      <c r="K33" t="s">
+        <v>293</v>
+      </c>
+      <c r="L33" t="s">
+        <v>294</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>295</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>287</v>
+      </c>
+      <c r="X33" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>297</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>298</v>
+      </c>
+      <c r="J34" t="s">
+        <v>299</v>
+      </c>
+      <c r="K34" t="s">
+        <v>300</v>
+      </c>
+      <c r="L34" t="s">
+        <v>301</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>302</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>287</v>
+      </c>
+      <c r="X34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>305</v>
+      </c>
+      <c r="J35" t="s">
+        <v>306</v>
+      </c>
+      <c r="K35" t="s">
+        <v>307</v>
+      </c>
+      <c r="L35" t="s">
+        <v>308</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>309</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>310</v>
+      </c>
+      <c r="X35" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>313</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>314</v>
+      </c>
+      <c r="J36" t="s">
+        <v>315</v>
+      </c>
+      <c r="K36" t="s">
+        <v>316</v>
+      </c>
+      <c r="L36" t="s">
+        <v>317</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>309</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>310</v>
+      </c>
+      <c r="X36" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>319</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>320</v>
+      </c>
+      <c r="J37" t="s">
+        <v>321</v>
+      </c>
+      <c r="K37" t="s">
+        <v>322</v>
+      </c>
+      <c r="L37" t="s">
+        <v>323</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>324</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>310</v>
+      </c>
+      <c r="X37" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>326</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>327</v>
+      </c>
+      <c r="J38" t="s">
+        <v>328</v>
+      </c>
+      <c r="K38" t="s">
+        <v>329</v>
+      </c>
+      <c r="L38" t="s">
+        <v>330</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>331</v>
+      </c>
+      <c r="X38" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>334</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>335</v>
+      </c>
+      <c r="J39" t="s">
+        <v>336</v>
+      </c>
+      <c r="K39" t="s">
+        <v>337</v>
+      </c>
+      <c r="L39" t="s">
+        <v>338</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>339</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>340</v>
+      </c>
+      <c r="X39" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>343</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>344</v>
+      </c>
+      <c r="J40" t="s">
+        <v>345</v>
+      </c>
+      <c r="K40" t="s">
+        <v>346</v>
+      </c>
+      <c r="L40" t="s">
+        <v>347</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>339</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>348</v>
+      </c>
+      <c r="X40" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>351</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>352</v>
+      </c>
+      <c r="J41" t="s">
+        <v>353</v>
+      </c>
+      <c r="K41" t="s">
+        <v>354</v>
+      </c>
+      <c r="L41" t="s">
+        <v>355</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>356</v>
+      </c>
+      <c r="O41" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>357</v>
+      </c>
+      <c r="X41" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>360</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>361</v>
+      </c>
+      <c r="J42" t="s">
+        <v>362</v>
+      </c>
+      <c r="K42" t="s">
+        <v>363</v>
+      </c>
+      <c r="L42" t="s">
+        <v>364</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>365</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>357</v>
+      </c>
+      <c r="X42" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>367</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>368</v>
+      </c>
+      <c r="J43" t="s">
+        <v>369</v>
+      </c>
+      <c r="K43" t="s">
+        <v>370</v>
+      </c>
+      <c r="L43" t="s">
+        <v>371</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>372</v>
+      </c>
+      <c r="X43" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>375</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>376</v>
+      </c>
+      <c r="J44" t="s">
+        <v>377</v>
+      </c>
+      <c r="K44" t="s">
+        <v>378</v>
+      </c>
+      <c r="L44" t="s">
+        <v>379</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>380</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>381</v>
+      </c>
+      <c r="X44" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>384</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>385</v>
+      </c>
+      <c r="J45" t="s">
+        <v>386</v>
+      </c>
+      <c r="K45" t="s">
+        <v>387</v>
+      </c>
+      <c r="L45" t="s">
+        <v>388</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>389</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>390</v>
+      </c>
+      <c r="X45" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>393</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>394</v>
+      </c>
+      <c r="J46" t="s">
+        <v>395</v>
+      </c>
+      <c r="K46" t="s">
+        <v>396</v>
+      </c>
+      <c r="L46" t="s">
+        <v>397</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>398</v>
+      </c>
+      <c r="O46" t="s">
+        <v>73</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>390</v>
+      </c>
+      <c r="X46" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>400</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>401</v>
+      </c>
+      <c r="J47" t="s">
+        <v>402</v>
+      </c>
+      <c r="K47" t="s">
+        <v>403</v>
+      </c>
+      <c r="L47" t="s">
+        <v>404</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>405</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>406</v>
+      </c>
+      <c r="X47" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>409</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>410</v>
+      </c>
+      <c r="J48" t="s">
+        <v>411</v>
+      </c>
+      <c r="K48" t="s">
+        <v>412</v>
+      </c>
+      <c r="L48" t="s">
+        <v>413</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>414</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>415</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>416</v>
+      </c>
+      <c r="J49" t="s">
+        <v>417</v>
+      </c>
+      <c r="K49" t="s">
+        <v>418</v>
+      </c>
+      <c r="L49" t="s">
+        <v>419</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>389</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>420</v>
+      </c>
+      <c r="X49" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>423</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>424</v>
+      </c>
+      <c r="J50" t="s">
+        <v>425</v>
+      </c>
+      <c r="K50" t="s">
+        <v>426</v>
+      </c>
+      <c r="L50" t="s">
+        <v>427</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>428</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>430</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>431</v>
+      </c>
+      <c r="J51" t="s">
+        <v>432</v>
+      </c>
+      <c r="K51" t="s">
+        <v>433</v>
+      </c>
+      <c r="L51" t="s">
+        <v>434</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>435</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>437</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>438</v>
+      </c>
+      <c r="J52" t="s">
+        <v>439</v>
+      </c>
+      <c r="K52" t="s">
+        <v>440</v>
+      </c>
+      <c r="L52" t="s">
+        <v>441</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>442</v>
+      </c>
+      <c r="O52" t="s">
+        <v>63</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>443</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>444</v>
+      </c>
+      <c r="J53" t="s">
+        <v>445</v>
+      </c>
+      <c r="K53" t="s">
+        <v>446</v>
+      </c>
+      <c r="L53" t="s">
+        <v>447</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>448</v>
+      </c>
+      <c r="O53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>449</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>450</v>
+      </c>
+      <c r="J54" t="s">
+        <v>451</v>
+      </c>
+      <c r="K54" t="s">
+        <v>452</v>
+      </c>
+      <c r="L54" t="s">
+        <v>453</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>454</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>455</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>456</v>
+      </c>
+      <c r="J55" t="s">
+        <v>457</v>
+      </c>
+      <c r="K55" t="s">
+        <v>458</v>
+      </c>
+      <c r="L55" t="s">
+        <v>459</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>460</v>
+      </c>
+      <c r="O55" t="s">
+        <v>73</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_319.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_319.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="708">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r589784238-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>30163</t>
+  </si>
+  <si>
+    <t>1465010</t>
+  </si>
+  <si>
+    <t>589784238</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Best Place in Alvin!!!</t>
+  </si>
+  <si>
+    <t>Front desk was great and very helpful! The food was exponentially great compared to other hotels I have been too. Also the rooms were very modern and roomy. The staff is very polite and friendly. I was surprised to find a hidden gem in this small town!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Melissa F, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded June 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2018</t>
+  </si>
+  <si>
+    <t>Front desk was great and very helpful! The food was exponentially great compared to other hotels I have been too. Also the rooms were very modern and roomy. The staff is very polite and friendly. I was surprised to find a hidden gem in this small town!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r583997594-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>583997594</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Softball tournament </t>
+  </si>
+  <si>
+    <t>This hotel was great to our softball team sugar and spikes. They let us stay in the pool hanging out and never had any issues with over 20 6-8 year olds running around. Great place. Only downfall was elevator it was slow. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Melissa F, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded May 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2018</t>
+  </si>
+  <si>
+    <t>This hotel was great to our softball team sugar and spikes. They let us stay in the pool hanging out and never had any issues with over 20 6-8 year olds running around. Great place. Only downfall was elevator it was slow. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r588944658-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
   </si>
   <si>
-    <t>30163</t>
-  </si>
-  <si>
-    <t>1465010</t>
-  </si>
-  <si>
     <t>588944658</t>
   </si>
   <si>
@@ -174,12 +231,6 @@
     <t>The breakfast was incredible! Joy did an amazing job. The food was so fresh and the dining room was so clean. The rooms were so clean and my family loved it! The bed was so comfortable we all slept like babies.MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Melissa F, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded June 21, 2018</t>
   </si>
   <si>
@@ -249,6 +300,48 @@
     <t>My boyfriend and I stayed here last weekend for our anniversary. This hotel is recently renovated and you can tell that there was a lot of thought put into the remodel. All of the amenities were amazing and the staff was awesome! The front desk staff even gave us a great recommendation for a restaurant in Crystal Beach, Steve’s Landing. Definitely worth the drive. We will be staying here the next chance we get.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r576267076-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>576267076</t>
+  </si>
+  <si>
+    <t>AMAZING!</t>
+  </si>
+  <si>
+    <t>My friends and I stayed at this Holiday Inn Express in Alvin for a girls getaway in Galveston. We chose this location as it was only about 30 min from the island and so so much cheaper! This hotel has been newly renovated and stands out from other Holiday Inn Hotels I have visited, the amenities are amazing and decor of this hotel was outstanding. The rooms were clean and comfortable and gave us the opportunity to relax. The staff was extremely friendly and gave us many tips for our fun filled weekend. This hotel far exceeded all our expectations and we will surely be back for our next trip!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>My friends and I stayed at this Holiday Inn Express in Alvin for a girls getaway in Galveston. We chose this location as it was only about 30 min from the island and so so much cheaper! This hotel has been newly renovated and stands out from other Holiday Inn Hotels I have visited, the amenities are amazing and decor of this hotel was outstanding. The rooms were clean and comfortable and gave us the opportunity to relax. The staff was extremely friendly and gave us many tips for our fun filled weekend. This hotel far exceeded all our expectations and we will surely be back for our next trip!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r576148958-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>576148958</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>Needs some work</t>
+  </si>
+  <si>
+    <t>The hotel staff if great.  The hotel had a face lift, and looks nice and modern.  But just like people with face lifts, you can't make them pretty on the inside.  This hotel is riddled with issues.  The elevator sounds like a death trap.  My first room had a broken fridge.  I tried to call the front desk to complain but... the phone didn't work...The desk clerk was immediately helpful and moved me immediately to a room that, well, kinda works.  The shower rod is broken, and the shower itself is... well, gross.  Anything that was supposed to be stainless steel is actually hard-water-crud colored.  I know I normally report on the pool and fitness center, but even though they have one of each I didn't go bother to check them out.Also, if I seem nitpicky on the fridge, I had called 2 days prior to ask for a first floor room with a fridge.  I got a 3rd floor with a broken one.  I am a spire member, highest they have, with 900,000 points.  You'd think that loyalty would count for something.Facelift looks pretty, but how about getting a handyman in here to go room by room and make sure everything works.  Then get the housekeeping department to make a deep clean of them all.  The cosmetics are only half the job...  MoreShow less</t>
+  </si>
+  <si>
+    <t>Parth P, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded April 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2018</t>
+  </si>
+  <si>
+    <t>The hotel staff if great.  The hotel had a face lift, and looks nice and modern.  But just like people with face lifts, you can't make them pretty on the inside.  This hotel is riddled with issues.  The elevator sounds like a death trap.  My first room had a broken fridge.  I tried to call the front desk to complain but... the phone didn't work...The desk clerk was immediately helpful and moved me immediately to a room that, well, kinda works.  The shower rod is broken, and the shower itself is... well, gross.  Anything that was supposed to be stainless steel is actually hard-water-crud colored.  I know I normally report on the pool and fitness center, but even though they have one of each I didn't go bother to check them out.Also, if I seem nitpicky on the fridge, I had called 2 days prior to ask for a first floor room with a fridge.  I got a 3rd floor with a broken one.  I am a spire member, highest they have, with 900,000 points.  You'd think that loyalty would count for something.Facelift looks pretty, but how about getting a handyman in here to go room by room and make sure everything works.  Then get the housekeeping department to make a deep clean of them all.  The cosmetics are only half the job...  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r573428332-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
   </si>
   <si>
@@ -324,6 +417,52 @@
     <t>Check in was fast and easy. Front desk girls were very polite. We get to the room and upon opening the door this smell smacks you in the face. I couldn't pinpoint if it was an old smoking room or just musty smell. Strangely enough after a while, you seem to get use to it, but trust me, we dreaded that smack in the face every time we returned to our room. I knew the hotel was booked, so didn't bother to mention,  it was so strong that something like an air freshener wouldn't have done a thing. Room was a good size, we had 2 beds and a couch. You can tell they have been renovated and while I appreciate that, it was a bit sloppy. Paint wasn't neat, some of the pipes in bathroom weren't replaced, condensation stain on the window blinds. Our TV didn't work right away, apparently they have the sensor to the box taped to the tv from the back so if the sensor is moved, which it was, the TV won't work. But it was a nice tv, but could be made to look better instead of having the box dangling behind it.  The room did not have a hair dryer. Breakfast was good. Your average, eggs, pancakes, sausage..goes till 10am on weekends. The rate was a bit high for all the issues. Overall I would stay here again, just because it would be...Check in was fast and easy. Front desk girls were very polite. We get to the room and upon opening the door this smell smacks you in the face. I couldn't pinpoint if it was an old smoking room or just musty smell. Strangely enough after a while, you seem to get use to it, but trust me, we dreaded that smack in the face every time we returned to our room. I knew the hotel was booked, so didn't bother to mention,  it was so strong that something like an air freshener wouldn't have done a thing. Room was a good size, we had 2 beds and a couch. You can tell they have been renovated and while I appreciate that, it was a bit sloppy. Paint wasn't neat, some of the pipes in bathroom weren't replaced, condensation stain on the window blinds. Our TV didn't work right away, apparently they have the sensor to the box taped to the tv from the back so if the sensor is moved, which it was, the TV won't work. But it was a nice tv, but could be made to look better instead of having the box dangling behind it.  The room did not have a hair dryer. Breakfast was good. Your average, eggs, pancakes, sausage..goes till 10am on weekends. The rate was a bit high for all the issues. Overall I would stay here again, just because it would be this or the LQ next door as the others  in Alvin I wouldn't even stop at.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r507053614-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>507053614</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>I had liked a Holiday Inn Express I recently stayed in (different state), so I gave this one a shot, but it was a mistake. It's not that any one thing was a disaster; it was just a long list of irritating things that made it hard to enjoy my stay. Here they are:
+-- The WiFi was unbelievably slow. I tried initially and it couldn't play a Facebook video or bring up Google Maps without waiting for a long time. I did a few speed tests that revealed a download speed of 0.67 Mbps. No, I'm not joking. Your typical home internet, which isn't terribly fast, will be at least 20-30 Mbps. This was less than one. I asked a person on the staff if this was normal, and he told me that it was. This alone, frankly, I find disqualifying--it's 2017; I should be able to use the internet.
+-- The TV didn't work when I first got to the room--it turned on, but the remote didn't work. I called the front desk and was given various suggestions (clearly this is a recurring problem), but that didn't work. A staff member came up to check it out and told me that I needed a new sensor and she would bring me one. I thought it'd be a matter of minutes (I was eager to take a nap), but over a half-hour later nobody had shown up, so I...I had liked a Holiday Inn Express I recently stayed in (different state), so I gave this one a shot, but it was a mistake. It's not that any one thing was a disaster; it was just a long list of irritating things that made it hard to enjoy my stay. Here they are:-- The WiFi was unbelievably slow. I tried initially and it couldn't play a Facebook video or bring up Google Maps without waiting for a long time. I did a few speed tests that revealed a download speed of 0.67 Mbps. No, I'm not joking. Your typical home internet, which isn't terribly fast, will be at least 20-30 Mbps. This was less than one. I asked a person on the staff if this was normal, and he told me that it was. This alone, frankly, I find disqualifying--it's 2017; I should be able to use the internet.-- The TV didn't work when I first got to the room--it turned on, but the remote didn't work. I called the front desk and was given various suggestions (clearly this is a recurring problem), but that didn't work. A staff member came up to check it out and told me that I needed a new sensor and she would bring me one. I thought it'd be a matter of minutes (I was eager to take a nap), but over a half-hour later nobody had shown up, so I had to call down again to get a new sensor. -- I couldn't find a hairdryer in the room. Looked everywhere. Then I was reminded that earlier that morning I had seen a woman get into the elevator in a robe and with a towel on her head, which made me wonder if she may have realized half-way through her morning routine that she didn't have a hairdryer and decided to head down to the front desk to chase one down...-- The air conditioner was incredibly noisy. Like having an airplane land in your room. I couldn't remember an air conditioner quite that noisy ever. -- Other annoying things included poor lighting (sitting at the desk in the evening, I could see hardly anything); a really bare room (no pictures on the walls); and signs of sloppiness in recent renovations (e.g., paint stains on the floor).There were certainly positives as well, so let me mention them to be fair: the room was spacious and newly renovated, with brand-new furniture; the bed was comfortable; the bathroom was spacious and renovated well; the usual Holiday Inn things (fridge, Keurig, microwave, free breakfast, etc.) were all there.All in all, I can't recommend it and will not be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Lexis M, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2017</t>
+  </si>
+  <si>
+    <t>I had liked a Holiday Inn Express I recently stayed in (different state), so I gave this one a shot, but it was a mistake. It's not that any one thing was a disaster; it was just a long list of irritating things that made it hard to enjoy my stay. Here they are:
+-- The WiFi was unbelievably slow. I tried initially and it couldn't play a Facebook video or bring up Google Maps without waiting for a long time. I did a few speed tests that revealed a download speed of 0.67 Mbps. No, I'm not joking. Your typical home internet, which isn't terribly fast, will be at least 20-30 Mbps. This was less than one. I asked a person on the staff if this was normal, and he told me that it was. This alone, frankly, I find disqualifying--it's 2017; I should be able to use the internet.
+-- The TV didn't work when I first got to the room--it turned on, but the remote didn't work. I called the front desk and was given various suggestions (clearly this is a recurring problem), but that didn't work. A staff member came up to check it out and told me that I needed a new sensor and she would bring me one. I thought it'd be a matter of minutes (I was eager to take a nap), but over a half-hour later nobody had shown up, so I...I had liked a Holiday Inn Express I recently stayed in (different state), so I gave this one a shot, but it was a mistake. It's not that any one thing was a disaster; it was just a long list of irritating things that made it hard to enjoy my stay. Here they are:-- The WiFi was unbelievably slow. I tried initially and it couldn't play a Facebook video or bring up Google Maps without waiting for a long time. I did a few speed tests that revealed a download speed of 0.67 Mbps. No, I'm not joking. Your typical home internet, which isn't terribly fast, will be at least 20-30 Mbps. This was less than one. I asked a person on the staff if this was normal, and he told me that it was. This alone, frankly, I find disqualifying--it's 2017; I should be able to use the internet.-- The TV didn't work when I first got to the room--it turned on, but the remote didn't work. I called the front desk and was given various suggestions (clearly this is a recurring problem), but that didn't work. A staff member came up to check it out and told me that I needed a new sensor and she would bring me one. I thought it'd be a matter of minutes (I was eager to take a nap), but over a half-hour later nobody had shown up, so I had to call down again to get a new sensor. -- I couldn't find a hairdryer in the room. Looked everywhere. Then I was reminded that earlier that morning I had seen a woman get into the elevator in a robe and with a towel on her head, which made me wonder if she may have realized half-way through her morning routine that she didn't have a hairdryer and decided to head down to the front desk to chase one down...-- The air conditioner was incredibly noisy. Like having an airplane land in your room. I couldn't remember an air conditioner quite that noisy ever. -- Other annoying things included poor lighting (sitting at the desk in the evening, I could see hardly anything); a really bare room (no pictures on the walls); and signs of sloppiness in recent renovations (e.g., paint stains on the floor).There were certainly positives as well, so let me mention them to be fair: the room was spacious and newly renovated, with brand-new furniture; the bed was comfortable; the bathroom was spacious and renovated well; the usual Holiday Inn things (fridge, Keurig, microwave, free breakfast, etc.) were all there.All in all, I can't recommend it and will not be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r507036845-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>507036845</t>
+  </si>
+  <si>
+    <t>Reasonable cost</t>
+  </si>
+  <si>
+    <t>Went to a last minute evening event in Galveston and didn't want to drive all the way back home. Most hotels in Galveston were already booked or cost $200 plus. This Holiday Inn was reasonable, very clean, had a decent breakfast and polite  employees. It only took 35 minutes to get to Galveston. I do recommend that you plan on eating meals some where other than Alvin. There is a microwave and refrigerator in the room that I should have utilized.MoreShow less</t>
+  </si>
+  <si>
+    <t>Went to a last minute evening event in Galveston and didn't want to drive all the way back home. Most hotels in Galveston were already booked or cost $200 plus. This Holiday Inn was reasonable, very clean, had a decent breakfast and polite  employees. It only took 35 minutes to get to Galveston. I do recommend that you plan on eating meals some where other than Alvin. There is a microwave and refrigerator in the room that I should have utilized.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r482492325-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
   </si>
   <si>
@@ -340,9 +479,6 @@
   </si>
   <si>
     <t>May 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>Lexis M, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded May 10, 2017</t>
@@ -406,6 +542,54 @@
     <t>Stay somewhere else.  This property is under construction and apparently the staff graduated at the bottom of their class in Hospitality services.  The only place that wasn't a complete mess was the front desk.  However the two lady's manning that desk were too busy with their personal conversation to be bothered by a customer trying to check in.  There's no common area for coffee or breakfast and a simple sign with no directions pointing down the road to a donut shop for morning meals.  I asked for a hotel card so that I could have the address and the lady behind the counter pointed to a sign on the wall and said, "that's our address, we don't have cards".Horrible property - terrible place to stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r467414439-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>467414439</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>People can see in the rooms from outside.</t>
+  </si>
+  <si>
+    <t>This hotel is very nice. The staff was friendly. I went to my room on the first floor and noticed right away the window coverings didn't cover the widows on either side. I asked if I could have a higher room so people couldn't look in. They were sold out. Then offered to send maintenance to fix them. They can not be fixed. Unless you were to hang curtains over the windows. I'm sitting on the bed and can clearly see outside. So if you stay here and have anyone that actually wants to undress, and can't get a higher room choose another property. And probably just a freak coincidence, my tv could only be turned on and off by hand. I couldn't turn the volume up or down or change channels, the constant fan button didn't work, and the toilet seat wouldn't stay up. Believe it or not I'd stay here again if I was guaranteed a higher level.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Lexis M, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded March 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is very nice. The staff was friendly. I went to my room on the first floor and noticed right away the window coverings didn't cover the widows on either side. I asked if I could have a higher room so people couldn't look in. They were sold out. Then offered to send maintenance to fix them. They can not be fixed. Unless you were to hang curtains over the windows. I'm sitting on the bed and can clearly see outside. So if you stay here and have anyone that actually wants to undress, and can't get a higher room choose another property. And probably just a freak coincidence, my tv could only be turned on and off by hand. I couldn't turn the volume up or down or change channels, the constant fan button didn't work, and the toilet seat wouldn't stay up. Believe it or not I'd stay here again if I was guaranteed a higher level.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r463894119-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>463894119</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Nicely done</t>
+  </si>
+  <si>
+    <t>I asked hotel clerk about a iron and board for it. I did not get back in time to the desk but she did put outside my door when I arrived later that night so I did have to look for it the next morning. Great customer service there!Breakfast had a good selection of teas and stuff to eat. Hotel rooms designed well with doors that close that loudly and shelves just within reach of the door when you enter the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>I asked hotel clerk about a iron and board for it. I did not get back in time to the desk but she did put outside my door when I arrived later that night so I did have to look for it the next morning. Great customer service there!Breakfast had a good selection of teas and stuff to eat. Hotel rooms designed well with doors that close that loudly and shelves just within reach of the door when you enter the room.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r449039602-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
   </si>
   <si>
@@ -487,6 +671,51 @@
     <t>The building was nice and clean.  The staff were friendly and helpful. The room was quiet.  Lighting for the mirror in the bathroom could be improved.  The lights on either side of the mirror were not very bright.  In our room, one of the two queen size beds had a large depression on top of the mattress.  The mattress should be replaced.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r408887514-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>408887514</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>I was given this hotel and city because I didn't want to lose money on a booking we had in New Orleans for these dates, the weather blah blah blah. I was thinking the worst even though I checked the reviews on TripAdvisor like I always do. This hotel was very clean and almost luxurious. Let's start with the walk up.... The property was clean and well kept. Entering the lobby....Oh WOW, NICE. The staff......Super nice easy fast check in. Checked out the pool and breakfast area.....Again, nice and clean. The pool is small but it's cute and enough if you just want the experience. On ward to the room.... pleasant smells. The smells were mainly from the laundry rooms, which were nicer than I've seen in most hotels. They even had nice chairs for you to sit in while you waited. Key card worked properly on the first time (sometimes that's an annoyance when you have to repeatedly slide that dang card). Open the door.... Cool breeze and more fresh smells. The bathroom was neatly supplied and arranged. The beds where high and most comfortable with great pillows. We were very happy. If you are staying/going to Galveston and can't find accommodations this is a good location. This hotel is about 20-30 miles away, but it is an easy drive and little traffic. THE BREAKFAST!!!!...... was really good. They had the usual hotel fare...breads, juice, coffee and fruit. They...I was given this hotel and city because I didn't want to lose money on a booking we had in New Orleans for these dates, the weather blah blah blah. I was thinking the worst even though I checked the reviews on TripAdvisor like I always do. This hotel was very clean and almost luxurious. Let's start with the walk up.... The property was clean and well kept. Entering the lobby....Oh WOW, NICE. The staff......Super nice easy fast check in. Checked out the pool and breakfast area.....Again, nice and clean. The pool is small but it's cute and enough if you just want the experience. On ward to the room.... pleasant smells. The smells were mainly from the laundry rooms, which were nicer than I've seen in most hotels. They even had nice chairs for you to sit in while you waited. Key card worked properly on the first time (sometimes that's an annoyance when you have to repeatedly slide that dang card). Open the door.... Cool breeze and more fresh smells. The bathroom was neatly supplied and arranged. The beds where high and most comfortable with great pillows. We were very happy. If you are staying/going to Galveston and can't find accommodations this is a good location. This hotel is about 20-30 miles away, but it is an easy drive and little traffic. THE BREAKFAST!!!!...... was really good. They had the usual hotel fare...breads, juice, coffee and fruit. They also had eggs (though powdered they were very tasty), sausage, sweet rolls (yum with cream cheese), oatmeal (several flavors) and turkey and pork sausage. This was great because it truly cut down on our food cost; we were so full. I will stay here again and recommend. So go ahead and book it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Paulrobertsm, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded May 9, 2018</t>
+  </si>
+  <si>
+    <t>I was given this hotel and city because I didn't want to lose money on a booking we had in New Orleans for these dates, the weather blah blah blah. I was thinking the worst even though I checked the reviews on TripAdvisor like I always do. This hotel was very clean and almost luxurious. Let's start with the walk up.... The property was clean and well kept. Entering the lobby....Oh WOW, NICE. The staff......Super nice easy fast check in. Checked out the pool and breakfast area.....Again, nice and clean. The pool is small but it's cute and enough if you just want the experience. On ward to the room.... pleasant smells. The smells were mainly from the laundry rooms, which were nicer than I've seen in most hotels. They even had nice chairs for you to sit in while you waited. Key card worked properly on the first time (sometimes that's an annoyance when you have to repeatedly slide that dang card). Open the door.... Cool breeze and more fresh smells. The bathroom was neatly supplied and arranged. The beds where high and most comfortable with great pillows. We were very happy. If you are staying/going to Galveston and can't find accommodations this is a good location. This hotel is about 20-30 miles away, but it is an easy drive and little traffic. THE BREAKFAST!!!!...... was really good. They had the usual hotel fare...breads, juice, coffee and fruit. They...I was given this hotel and city because I didn't want to lose money on a booking we had in New Orleans for these dates, the weather blah blah blah. I was thinking the worst even though I checked the reviews on TripAdvisor like I always do. This hotel was very clean and almost luxurious. Let's start with the walk up.... The property was clean and well kept. Entering the lobby....Oh WOW, NICE. The staff......Super nice easy fast check in. Checked out the pool and breakfast area.....Again, nice and clean. The pool is small but it's cute and enough if you just want the experience. On ward to the room.... pleasant smells. The smells were mainly from the laundry rooms, which were nicer than I've seen in most hotels. They even had nice chairs for you to sit in while you waited. Key card worked properly on the first time (sometimes that's an annoyance when you have to repeatedly slide that dang card). Open the door.... Cool breeze and more fresh smells. The bathroom was neatly supplied and arranged. The beds where high and most comfortable with great pillows. We were very happy. If you are staying/going to Galveston and can't find accommodations this is a good location. This hotel is about 20-30 miles away, but it is an easy drive and little traffic. THE BREAKFAST!!!!...... was really good. They had the usual hotel fare...breads, juice, coffee and fruit. They also had eggs (though powdered they were very tasty), sausage, sweet rolls (yum with cream cheese), oatmeal (several flavors) and turkey and pork sausage. This was great because it truly cut down on our food cost; we were so full. I will stay here again and recommend. So go ahead and book it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r400074370-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>400074370</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay ...renovations starting next week!</t>
+  </si>
+  <si>
+    <t>We pulled up and the outside definitely looked run down.  I even had my husband go in and look at the room before we unloaded all the kids and luggage! But he came out and said that it looked fine.  We stayed here four nights and really had a very good experience.  In talking to the staff we found out major renovations are starting next week.  It needs an update but the staff is wonderful and worked diligently to accommodate everything we needed which we completely appreciated.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Olivia F, Director of Sales at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2016</t>
+  </si>
+  <si>
+    <t>We pulled up and the outside definitely looked run down.  I even had my husband go in and look at the room before we unloaded all the kids and luggage! But he came out and said that it looked fine.  We stayed here four nights and really had a very good experience.  In talking to the staff we found out major renovations are starting next week.  It needs an update but the staff is wonderful and worked diligently to accommodate everything we needed which we completely appreciated.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r393367017-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
   </si>
   <si>
@@ -505,9 +734,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>Paulrobertsm, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded May 9, 2018</t>
-  </si>
-  <si>
     <t>We stayed in this hotel for a night. Staff was very friendly and helpful. The rooms were big, beds were comfortable, and the pool was clean. the breakfast was edible, but I wanted bacon and they had sausage patties. So we went to Diana's Grill. Great breakfast!More</t>
   </si>
   <si>
@@ -550,6 +776,48 @@
     <t>Lovely comfortable hotel. The room was spacious clean and bed amazing. Really cozy. The bed is very high, so if you are a shortie you may have difficulties getting in and out of it! Ceilings very high in room, so makes the room feel very light and airy.Really good breakfast on offer, hot items and lots of fruit and yoghurt. Hot cinnamon rolls are yummy.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r369432261-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>369432261</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>3 night stay</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay at Holiday Inn Express Suite Alvin-Houston 4/20-4/23/16 checking in was easy and fast thanks to Rachel. Room was clean 2 Queen bed and sofa bed. Hotel is close to Houston and Galveston. Standard free breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay at Holiday Inn Express Suite Alvin-Houston 4/20-4/23/16 checking in was easy and fast thanks to Rachel. Room was clean 2 Queen bed and sofa bed. Hotel is close to Houston and Galveston. Standard free breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r361818448-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>361818448</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Clean, quiet and comfortable</t>
+  </si>
+  <si>
+    <t>I work night job. Management did everything exactly I requested for my comfortable stay. I was never woken up during day for cleaning my room or anything else. They had Housekeeper come in at night just to clean my room. Only wish I pick this place first than the other guys.A++ hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I work night job. Management did everything exactly I requested for my comfortable stay. I was never woken up during day for cleaning my room or anything else. They had Housekeeper come in at night just to clean my room. Only wish I pick this place first than the other guys.A++ hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r358906872-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
   </si>
   <si>
@@ -565,9 +833,6 @@
     <t>I arrived really late on a Saturday so I was going to get very little use of the room and no use of amenities like the pool, gym or free movies Etc. I called in advance to make sure they had a government discount and was told yes they did. When I was at the front desk it was almost midnight and I had trouble finding my government ID but showed the clerk my government credit card. He said his manager would not accept that for my discount. I then asked if they give Trip Advisor contributors a discount? The manager said no he didn't care about that. I had to send an employee back to the office to get my ID and was finally checked into my room at almost 1 am.MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>I arrived really late on a Saturday so I was going to get very little use of the room and no use of amenities like the pool, gym or free movies Etc. I called in advance to make sure they had a government discount and was told yes they did. When I was at the front desk it was almost midnight and I had trouble finding my government ID but showed the clerk my government credit card. He said his manager would not accept that for my discount. I then asked if they give Trip Advisor contributors a discount? The manager said no he didn't care about that. I had to send an employee back to the office to get my ID and was finally checked into my room at almost 1 am.More</t>
   </si>
   <si>
@@ -610,6 +875,54 @@
     <t>The room itself was clean and smelled good. We were on the first floor. The room looked new and pillows and bed were very comfortable. However the next morning we went out for breakfast and there was hardly a thing left. You would think that they would replenish everything that was eaten. Definitely disappointed there. The staff that was in the breakfast area just walked around and didn't acknowledge that there wasn't any food left either. We left hungry and went to eat elsewhere! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r336291886-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>336291886</t>
+  </si>
+  <si>
+    <t>12/31/2015</t>
+  </si>
+  <si>
+    <t>Fantastic Staff</t>
+  </si>
+  <si>
+    <t>This Express cares about their guests. Their service is second to none. The hotel is clean and the Manager's reception is a nice extra. I will be coming back to stay when in the area. My family loved all the amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Melissa F, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded May 9, 2018</t>
+  </si>
+  <si>
+    <t>This Express cares about their guests. Their service is second to none. The hotel is clean and the Manager's reception is a nice extra. I will be coming back to stay when in the area. My family loved all the amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r328388359-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>328388359</t>
+  </si>
+  <si>
+    <t>11/22/2015</t>
+  </si>
+  <si>
+    <t>Very Friendly</t>
+  </si>
+  <si>
+    <t>Excellent clean room. The coffee was very good. The staff was courteous and professional.Very very nice continental breakfast with of fresh fruit and options. The omelets were very good.The price was very reasonable.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Melissa_F_AGSM, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Excellent clean room. The coffee was very good. The staff was courteous and professional.Very very nice continental breakfast with of fresh fruit and options. The omelets were very good.The price was very reasonable.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r327207003-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
   </si>
   <si>
@@ -625,12 +938,6 @@
     <t>We stayed here for 1 night over the weekend while visiting friends in the area.  The hotel itself is impeccably clean and inviting.  The girl at check in did not seem very happy and was not very personable unfortunately. I am a Spire Elite with IHG but I was not asked if I wanted 500 bonus points or a welcome amenity upon arrival.  She also said something about charging me in the morning for the room and when I mentioned there should be no charges because I was on an award night - she seemed confused and asked me "did you book online?".  Maybe she was having a bad day.I think this is an issue chainwide because I've had this happen before where the front desk does not understand how to process an award night reservation.As for the room - it was standard 2 queens and fine for what we needed.  It was very clean so no complaints there!One person in my party went for coffee downstairs very early in the morning before breakfast officially started and said that the lady setting it up was very nice.We will definitely be back to this hotel - as it is an excellent choice if you need to go to Alvin or any of the surrounding small towns.  There is a Chili's, Olive Garden and Starbucks across the street and it's  about 27 miles away from Galveston as well.MoreShow less</t>
   </si>
   <si>
-    <t>November 2015</t>
-  </si>
-  <si>
-    <t>Melissa_F_AGSM, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded May 9, 2018</t>
-  </si>
-  <si>
     <t>We stayed here for 1 night over the weekend while visiting friends in the area.  The hotel itself is impeccably clean and inviting.  The girl at check in did not seem very happy and was not very personable unfortunately. I am a Spire Elite with IHG but I was not asked if I wanted 500 bonus points or a welcome amenity upon arrival.  She also said something about charging me in the morning for the room and when I mentioned there should be no charges because I was on an award night - she seemed confused and asked me "did you book online?".  Maybe she was having a bad day.I think this is an issue chainwide because I've had this happen before where the front desk does not understand how to process an award night reservation.As for the room - it was standard 2 queens and fine for what we needed.  It was very clean so no complaints there!One person in my party went for coffee downstairs very early in the morning before breakfast officially started and said that the lady setting it up was very nice.We will definitely be back to this hotel - as it is an excellent choice if you need to go to Alvin or any of the surrounding small towns.  There is a Chili's, Olive Garden and Starbucks across the street and it's  about 27 miles away from Galveston as well.More</t>
   </si>
   <si>
@@ -671,6 +978,45 @@
   </si>
   <si>
     <t>Very clean. Very nice. The fitness room has 2 impressive treadmills, a bike and a stair stepper. The breakfast offered a great variety including a make your own pancake machine, cinnamon rolls, yogurts, fresh fruits, cereals. The spa/hot tub has an out of order sign, but the pool looked clean. Staff was very helpful. Will definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r299725142-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>299725142</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>Excellent hotel.</t>
+  </si>
+  <si>
+    <t>Excellent hotel. Great staff and friendly. Good breakfast.. it has a pankake machine. The pool was good. It has a laundry room that is $2 in the second floor. It's close to the highway that goes from Houston to Galveston.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Excellent hotel. Great staff and friendly. Good breakfast.. it has a pankake machine. The pool was good. It has a laundry room that is $2 in the second floor. It's close to the highway that goes from Houston to Galveston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r289948747-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>289948747</t>
+  </si>
+  <si>
+    <t>07/17/2015</t>
+  </si>
+  <si>
+    <t>Good Location</t>
+  </si>
+  <si>
+    <t>Hotel is new, staff friendly and helpful. Our room was very clean and fresh. Breakfast was average. No problems with parking. Galveston (the beach) and Houston (shopping) are 45 minutes away. There are several places to eat in Alvin.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel is new, staff friendly and helpful. Our room was very clean and fresh. Breakfast was average. No problems with parking. Galveston (the beach) and Houston (shopping) are 45 minutes away. There are several places to eat in Alvin.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r285525049-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
@@ -693,9 +1039,6 @@
 Their breakfast buffet in the beautifully-appointed “Great Room” featured a nice selection of sausage (both patties and links), biscuits and gravy, other types of breads, an automatic pancake...Our stay at the Holiday Inn Express over the July 4th weekend was nice. There are many things that this property has going for it.The room we had was a nice, large, comfortable, and very clean room. The television was a nice sized flat screen with DirectTV, and that was a nice surprise. The cable service included a working guide and very quick response when you channel-surfed; something that is not found in to many hotel rooms. The beds are nice and comfortable with multiple pillow options.  The room also included a refrigerator and microwave oven. The lobby has a little store in it where you can buy food and other sundries.The bathroom was nice and roomy and included amenities from Bath and Body Works. The towels we nice, big, thirsty towels that you do not see in too many hotels. The water pressure in the shower was in perfect working order and the adjustable showerhead actually adjusted into positions that you can find useful.The staff here was on their “A” game. We were greeted by Patrice who informed us that she was new, but she had a good handle on checking us in. Everyone else on the staff that we dealt with were just as friendly and professional. Their breakfast buffet in the beautifully-appointed “Great Room” featured a nice selection of sausage (both patties and links), biscuits and gravy, other types of breads, an automatic pancake machine that made a decent pancake, yogurts, cereals, and juices and coffee.This property has really great potential, however, there were some missteps during our visit. The pool was clean and sparkling, but the whirlpool had slimy fungus actively growing in it. First I thought it was just the color that they had chosen for the whirlpool (why green? I have no idea, but I could not believe that was fungus), but upon closer inspection – yep, green slime.I am hoping that the explanation is because it does not have a drain nor a skimmer and therefore cannot filter the water like the pool. And possibly all the rain they’ve had in this part of Texas lately is not helping keep the fungus problem under control.Something else we noticed during this visit was that the bathtub would not hold water for a bath. Even when you closed the drain, it still stayed open a little bit – just enough that you could not keep a filled tub. This was disappointing because the tub is one of those decent hotel tubs that you actually consider taking a bath in. The shape and size of it lends itself to that idea.Lastly, I must report that the wireless internet service that they offered (at least during our visit) was extremely slow and unreliable.  I ended up having to turn on the mobile hotspot on my cellphone to get any type of reliable internet service. I hated including the negative items about our stay because I really like this place. The staff is great and the accommodations are comfortable. Hopefully the property can figure out the best course of action for the whirlpool and the internet service.I would definitely stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>Our stay at the Holiday Inn Express over the July 4th weekend was nice. There are many things that this property has going for it.
 The room we had was a nice, large, comfortable, and very clean room. The television was a nice sized flat screen with DirectTV, and that was a nice surprise. The cable service included a working guide and very quick response when you channel-surfed; something that is not found in to many hotel rooms. 
 The beds are nice and comfortable with multiple pillow options.  The room also included a refrigerator and microwave oven. The lobby has a little store in it where you can buy food and other sundries.
@@ -743,6 +1086,42 @@
     <t>Big rooms, nice fridge. Hairdryer blew up next to my my 5 year old, (smoking and blowing sparks) while trying to get ready for a wedding. zero sense of urgency to help find another hairdryer. I had to suggest getting the one from a room next door after waiting for maintenance to "find one". Hot tub is green and scary. You get locked out by the pool, and they can't figure out why your room key doesn't work to let you back in. Find another place in Alvin. We would've but 5 family members got rooms for the wedding block (all of us scattered across hotel, not next to each other for whatever reason). If you need zero customer service, stay here, if you expect any amount of service for your dollar - don't bother. I may expect too much since this a 2 star hotel - Why would you expect a hot tub to work or rely on a hotel hairdrier? My bad,More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r278145209-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>278145209</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>Nice Hotel, Bad Expereince</t>
+  </si>
+  <si>
+    <t>My experience started very bad but the staff was great and made for an excellent visit.  The first three rooms I was given had not been cleaned.  The fourth room was excellent and very comfortable.  Great location and easy to find.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r270979159-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>270979159</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>Nice new hotel with a security concern</t>
+  </si>
+  <si>
+    <t>This hotel is obviously new, it is clean and has modern decor. The staff are friendly as well. Pretty much a typical HIX.My main concern is security. Every time I entered the front lobby the outer door appeared to be locked in the open position, and there was a sign on the registration desk to ring a bell for assistance. The clerk was almost always behind a wall. What prevents someone from entering the hotel unchecked to do mischief? This seems to be a significant breach in hotel security protocol.I encourage management to make significant changes to their front desk security policy for the peace of mind of clients.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r266876873-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
   </si>
   <si>
@@ -758,9 +1137,6 @@
     <t>Facilities were great but the staff made this stay outstanding.  Natasha checked me in but the morning breakfast lady and even the grounds keepers were exceptionally friendly.  Next cruise out of Galveston, I'll definitely be staying here!MoreShow less</t>
   </si>
   <si>
-    <t>April 2015</t>
-  </si>
-  <si>
     <t>Cheryl W, General Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded April 27, 2015</t>
   </si>
   <si>
@@ -818,6 +1194,45 @@
     <t>I stayed here for a business trip nearby, and was immediately impressed with the decor - felt very upscale!  High ceilings, nice details, and very welcoming.The staff couldn't be more pleasant or accommodating - I have a small issue, which they immediately addressed, and addressed fully.  They were very friendly and always had a smile and a  can-do attitude!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r224448110-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>224448110</t>
+  </si>
+  <si>
+    <t>08/25/2014</t>
+  </si>
+  <si>
+    <t>Very nice place with very friendly staff</t>
+  </si>
+  <si>
+    <t>We stayed here for a night while visiting family nearby and we had a very pleasant experience.  The room was nice and clean with very a comfortable bed.  The bathroom was also cleaned and had a nice walk-in shower.  The free breakfast is your typical HI Express breakfast...OK, but you get what you "pay" for.  The location was perfect for us as it was less than a half mile from our destination for dinner.  We would definitely stay here again when we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for a night while visiting family nearby and we had a very pleasant experience.  The room was nice and clean with very a comfortable bed.  The bathroom was also cleaned and had a nice walk-in shower.  The free breakfast is your typical HI Express breakfast...OK, but you get what you "pay" for.  The location was perfect for us as it was less than a half mile from our destination for dinner.  We would definitely stay here again when we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r222099971-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>222099971</t>
+  </si>
+  <si>
+    <t>08/15/2014</t>
+  </si>
+  <si>
+    <t>What a nice stay!</t>
+  </si>
+  <si>
+    <t>Nice hotel, Nice staff,my room was very close to perfect! my only complaint is , there is not enough lighting in the room.I had to give up on reading of which I thouroughly enjoy when I travel..Even in daylight with the curtains open I could not see to read the novel I brought .One could not direct light on a book,as the lamp shade 's are not movable , the wattage of bulb must be low, and there are no overhead light's except in bathroom. I stayed at the kemah holiday inn in may . they have the cutest movable light attached to head board for reading, I bought a similar light at Barnes and Noble this week for travel. I will stay at this hotel again . despite lighting issue .I appreciate the staff ! They did some 'juggling' to get me into a 1st floor room! I had requested a 1st floor room upon making the reservation. The hotel is very clean with fluffy duvet's, I loved the shower head , plus plenty of hot water, on the vanity was a plaque type sign stating to call front desk if toiletries such as toothbrush, etc. were neede they would be brought to your room, although I did not need anything this was nice to know ! im sure there would only be a small charge for product it , I have not seen such in hotels and I...Nice hotel, Nice staff,my room was very close to perfect! my only complaint is , there is not enough lighting in the room.I had to give up on reading of which I thouroughly enjoy when I travel..Even in daylight with the curtains open I could not see to read the novel I brought .One could not direct light on a book,as the lamp shade 's are not movable , the wattage of bulb must be low, and there are no overhead light's except in bathroom. I stayed at the kemah holiday inn in may . they have the cutest movable light attached to head board for reading, I bought a similar light at Barnes and Noble this week for travel. I will stay at this hotel again . despite lighting issue .I appreciate the staff ! They did some 'juggling' to get me into a 1st floor room! I had requested a 1st floor room upon making the reservation. The hotel is very clean with fluffy duvet's, I loved the shower head , plus plenty of hot water, on the vanity was a plaque type sign stating to call front desk if toiletries such as toothbrush, etc. were neede they would be brought to your room, although I did not need anything this was nice to know ! im sure there would only be a small charge for product it , I have not seen such in hotels and I stay in hotel's more than the average person.the breakfast was delicious , and check out was easy and quick , bill under door in am, I simply placed key's on front desk, and told front desk am person by. I was on my way , out the door at 630 am, right on time for a day trip with a family member who lives in Alvin however does not have enough bed's available in home to host me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice hotel, Nice staff,my room was very close to perfect! my only complaint is , there is not enough lighting in the room.I had to give up on reading of which I thouroughly enjoy when I travel..Even in daylight with the curtains open I could not see to read the novel I brought .One could not direct light on a book,as the lamp shade 's are not movable , the wattage of bulb must be low, and there are no overhead light's except in bathroom. I stayed at the kemah holiday inn in may . they have the cutest movable light attached to head board for reading, I bought a similar light at Barnes and Noble this week for travel. I will stay at this hotel again . despite lighting issue .I appreciate the staff ! They did some 'juggling' to get me into a 1st floor room! I had requested a 1st floor room upon making the reservation. The hotel is very clean with fluffy duvet's, I loved the shower head , plus plenty of hot water, on the vanity was a plaque type sign stating to call front desk if toiletries such as toothbrush, etc. were neede they would be brought to your room, although I did not need anything this was nice to know ! im sure there would only be a small charge for product it , I have not seen such in hotels and I...Nice hotel, Nice staff,my room was very close to perfect! my only complaint is , there is not enough lighting in the room.I had to give up on reading of which I thouroughly enjoy when I travel..Even in daylight with the curtains open I could not see to read the novel I brought .One could not direct light on a book,as the lamp shade 's are not movable , the wattage of bulb must be low, and there are no overhead light's except in bathroom. I stayed at the kemah holiday inn in may . they have the cutest movable light attached to head board for reading, I bought a similar light at Barnes and Noble this week for travel. I will stay at this hotel again . despite lighting issue .I appreciate the staff ! They did some 'juggling' to get me into a 1st floor room! I had requested a 1st floor room upon making the reservation. The hotel is very clean with fluffy duvet's, I loved the shower head , plus plenty of hot water, on the vanity was a plaque type sign stating to call front desk if toiletries such as toothbrush, etc. were neede they would be brought to your room, although I did not need anything this was nice to know ! im sure there would only be a small charge for product it , I have not seen such in hotels and I stay in hotel's more than the average person.the breakfast was delicious , and check out was easy and quick , bill under door in am, I simply placed key's on front desk, and told front desk am person by. I was on my way , out the door at 630 am, right on time for a day trip with a family member who lives in Alvin however does not have enough bed's available in home to host me.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r214997417-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
   </si>
   <si>
@@ -878,6 +1293,42 @@
     <t>The employees were nice, but our room smelled like someone that stayed there recently violated their no pets policy. The hotel itself and hallway smelled fine, but open up our hotel room door and get the STRONG ODOR of CAT PEE (or something like that - not pleasant).  We asked to switch rooms, but were told there were no other rooms with 2 beds available (we had 2 kids with us, so the 4 of us couldn't stay in a room with one bed).  I already prepaid for the room, so we decided to stay.  The smell was significant (not something they could not obviously notice) and they really should CLEAN the room when they discover something like this, not just rent the room to the next guest.  It just shows there was no one there that really cares.  If that weren't enough, after going to bed, things got worse.  If you check out the hotel's location on Google maps, you'll notice railroad tracks about a block away.  Well, about every hour that night, a train came through and BLEW THE TRAIN WHISTLE.  I only stayed there one night, so I don't know if this happens every night, but I HEARD SEVERAL TRAINS and their whistles that night about every hour (I'm guessing they have to blow the whistle because of a nearby intersection).  Ok, it's not the hotel's fault that I heard a fairly loud train whistle at about...The employees were nice, but our room smelled like someone that stayed there recently violated their no pets policy. The hotel itself and hallway smelled fine, but open up our hotel room door and get the STRONG ODOR of CAT PEE (or something like that - not pleasant).  We asked to switch rooms, but were told there were no other rooms with 2 beds available (we had 2 kids with us, so the 4 of us couldn't stay in a room with one bed).  I already prepaid for the room, so we decided to stay.  The smell was significant (not something they could not obviously notice) and they really should CLEAN the room when they discover something like this, not just rent the room to the next guest.  It just shows there was no one there that really cares.  If that weren't enough, after going to bed, things got worse.  If you check out the hotel's location on Google maps, you'll notice railroad tracks about a block away.  Well, about every hour that night, a train came through and BLEW THE TRAIN WHISTLE.  I only stayed there one night, so I don't know if this happens every night, but I HEARD SEVERAL TRAINS and their whistles that night about every hour (I'm guessing they have to blow the whistle because of a nearby intersection).  Ok, it's not the hotel's fault that I heard a fairly loud train whistle at about 10p, 11p, 12a, etc. while trying to sleep, but an important factor in deciding to book this hotel, so I figured I should share it.  Overall, a bad experience.  Is it too much to ask for to have a clean smelling room?More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r203152778-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>203152778</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>Yes, I do exist, really</t>
+  </si>
+  <si>
+    <t>Overall the facility is convenient, clean and new.  The desk staff have been helpful and the rate we have cannot be beat.  That said there have been issues.I.'m on the second two week stay of three that we have scheduled for work.  Both times the desk has managed to lose my reservation. On the first trip they put me into a room that had not been readied and had no sheets on the bed. No problem, they put me into a prepared room and then promptly forgot about me. In the fourteen days that I was there housekeeping didn't show up about a third of the time.  It isn't cool when you run out of towells or when the garbage can is overflowing.  The first time it happened I received an extra 1000 points on their frequent stay program.   This time round I was placed into a room that smells like an old ash tray. I went to make coffee this morning and the pot hadn't been cleaned and was growing mold. I suppose that didn't matter because there was no regular coffee anyway.   At this point I'm just going to grin and bear it, I'm tired of complaining.MoreShow less</t>
+  </si>
+  <si>
+    <t>Overall the facility is convenient, clean and new.  The desk staff have been helpful and the rate we have cannot be beat.  That said there have been issues.I.'m on the second two week stay of three that we have scheduled for work.  Both times the desk has managed to lose my reservation. On the first trip they put me into a room that had not been readied and had no sheets on the bed. No problem, they put me into a prepared room and then promptly forgot about me. In the fourteen days that I was there housekeeping didn't show up about a third of the time.  It isn't cool when you run out of towells or when the garbage can is overflowing.  The first time it happened I received an extra 1000 points on their frequent stay program.   This time round I was placed into a room that smells like an old ash tray. I went to make coffee this morning and the pot hadn't been cleaned and was growing mold. I suppose that didn't matter because there was no regular coffee anyway.   At this point I'm just going to grin and bear it, I'm tired of complaining.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r197313001-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>197313001</t>
+  </si>
+  <si>
+    <t>03/13/2014</t>
+  </si>
+  <si>
+    <t>Great hotel in Alvin</t>
+  </si>
+  <si>
+    <t>We were in Alvin to attend our daughters gymnastics meet and choose this hotel based on good reviews. This hotel is great. The rooms are clean and huge! Ours had two queen beds plus a couch that could be pulled out for another bed. Sleep six and have room to move around! The rooms are well appointed with comfy beds, a refrigerator, microwave and coffee maker. The location is good but there's not a lot in Alvin. The breakfast is good. Not many fruit choices but they do have a pancake maker, pre made omelettes, coffee, juice, toast etc...Overall really good hotel and one we would stay at again.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r195877883-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
   </si>
   <si>
@@ -944,6 +1395,42 @@
     <t>The hotel was very nice. Got a great rate on Hotwire.  Only complaint is the hotel was not busy when we stayed there, but after sight seeing in Galveston for the day we got back to the room and it was not made.  But they apologized and gave us goody bags and put us in a slightly upgraded room, which was nice.  It was a little confusing to get to the hotel as it did not show up on the GPS.  Not many good restaurant choices in the area.  The free breakfast was really good!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r187208213-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>187208213</t>
+  </si>
+  <si>
+    <t>12/09/2013</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Very neat hotel at a great price. The staff was very friendly and helpful we stayed on the third floor and there was no noise.Rooms where clean and spacious and the bed was very comfortable.Enjoyed the free hot breakfast and nice to see the staff took pride in their work.Could not find fault with anything.Took a trip down to Galveston, 40 minute drive nice and easy.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very neat hotel at a great price. The staff was very friendly and helpful we stayed on the third floor and there was no noise.Rooms where clean and spacious and the bed was very comfortable.Enjoyed the free hot breakfast and nice to see the staff took pride in their work.Could not find fault with anything.Took a trip down to Galveston, 40 minute drive nice and easy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r185253373-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>185253373</t>
+  </si>
+  <si>
+    <t>11/19/2013</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Stayed here on the night before our cruise.  Very clean, nice hotel.  Customer service was great and everyone was very friendly and helpful.  I highly recommend staying here if you are cruising out of Galveston.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r181015934-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
   </si>
   <si>
@@ -1010,6 +1497,54 @@
     <t>needed a place to sleep for the night, came in late, overnight desk person was very nice. he even gave me a goodie bag of chips, etc because i said i was hungry and didn't want to leave the property. large rooms, good a/c, very decent breakfast. would stay here againMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r177966238-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>177966238</t>
+  </si>
+  <si>
+    <t>09/20/2013</t>
+  </si>
+  <si>
+    <t>A little disappointed, but wasn't terrible.</t>
+  </si>
+  <si>
+    <t>Having been a Holiday Inn Priority Club Member since 2007, I have to say that this location ranks towards the bottom of the list. Before I break down my stay, I have to say that the staff is awesome! From the minute we checked in until we checked out, we were treated very well. An example of this is when the manager Cheryl approached my friend and I while we were in the pool. Cheryl came to the pool to personally invite us to the manager reception, which was very nice. Now, here is my breakdown:
+Pro's: The manager reception consisted of several snack foods and beer while a movie was shown. The property is very clean, and the area is safe.  The breakfast was also good.
+Cons: My biggest issues involved the pool/jacuzzi area.  First, there are no umbrellas provided at the tables, which makes sitting by the pool virtually impossible in the Texas heat, and to add to the problem is the fact that there is absolutely no shade in the area.  Second, the pool is small, and it's only four-feet deep at the deepest point. Third, the jacuzzi wasn't the cleanest, and the temperature wasn't exactly hot, like a jacuzzi should be. 
+Moving on to the room. There is bondage provided and my biggest issue was the a/c. When the a/c kicks on it sounds like a jet revving up for takeoff, and there is no way...Having been a Holiday Inn Priority Club Member since 2007, I have to say that this location ranks towards the bottom of the list. Before I break down my stay, I have to say that the staff is awesome! From the minute we checked in until we checked out, we were treated very well. An example of this is when the manager Cheryl approached my friend and I while we were in the pool. Cheryl came to the pool to personally invite us to the manager reception, which was very nice. Now, here is my breakdown:Pro's: The manager reception consisted of several snack foods and beer while a movie was shown. The property is very clean, and the area is safe.  The breakfast was also good.Cons: My biggest issues involved the pool/jacuzzi area.  First, there are no umbrellas provided at the tables, which makes sitting by the pool virtually impossible in the Texas heat, and to add to the problem is the fact that there is absolutely no shade in the area.  Second, the pool is small, and it's only four-feet deep at the deepest point. Third, the jacuzzi wasn't the cleanest, and the temperature wasn't exactly hot, like a jacuzzi should be. Moving on to the room. There is bondage provided and my biggest issue was the a/c. When the a/c kicks on it sounds like a jet revving up for takeoff, and there is no way to lower the fan. The fitness center actually wasn't terrible. There is two treadmills, an elliptical machine, bike and free weight barbells. However, they don't supply towels and there are no sanitizing wipes for the equipment.Finally, I think the rate of $140.00 per night (AAA RATE) is to steep considering the fact that there is nothing to do in the general area. It's not a bad area, just nothing around.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded September 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2013</t>
+  </si>
+  <si>
+    <t>Having been a Holiday Inn Priority Club Member since 2007, I have to say that this location ranks towards the bottom of the list. Before I break down my stay, I have to say that the staff is awesome! From the minute we checked in until we checked out, we were treated very well. An example of this is when the manager Cheryl approached my friend and I while we were in the pool. Cheryl came to the pool to personally invite us to the manager reception, which was very nice. Now, here is my breakdown:
+Pro's: The manager reception consisted of several snack foods and beer while a movie was shown. The property is very clean, and the area is safe.  The breakfast was also good.
+Cons: My biggest issues involved the pool/jacuzzi area.  First, there are no umbrellas provided at the tables, which makes sitting by the pool virtually impossible in the Texas heat, and to add to the problem is the fact that there is absolutely no shade in the area.  Second, the pool is small, and it's only four-feet deep at the deepest point. Third, the jacuzzi wasn't the cleanest, and the temperature wasn't exactly hot, like a jacuzzi should be. 
+Moving on to the room. There is bondage provided and my biggest issue was the a/c. When the a/c kicks on it sounds like a jet revving up for takeoff, and there is no way...Having been a Holiday Inn Priority Club Member since 2007, I have to say that this location ranks towards the bottom of the list. Before I break down my stay, I have to say that the staff is awesome! From the minute we checked in until we checked out, we were treated very well. An example of this is when the manager Cheryl approached my friend and I while we were in the pool. Cheryl came to the pool to personally invite us to the manager reception, which was very nice. Now, here is my breakdown:Pro's: The manager reception consisted of several snack foods and beer while a movie was shown. The property is very clean, and the area is safe.  The breakfast was also good.Cons: My biggest issues involved the pool/jacuzzi area.  First, there are no umbrellas provided at the tables, which makes sitting by the pool virtually impossible in the Texas heat, and to add to the problem is the fact that there is absolutely no shade in the area.  Second, the pool is small, and it's only four-feet deep at the deepest point. Third, the jacuzzi wasn't the cleanest, and the temperature wasn't exactly hot, like a jacuzzi should be. Moving on to the room. There is bondage provided and my biggest issue was the a/c. When the a/c kicks on it sounds like a jet revving up for takeoff, and there is no way to lower the fan. The fitness center actually wasn't terrible. There is two treadmills, an elliptical machine, bike and free weight barbells. However, they don't supply towels and there are no sanitizing wipes for the equipment.Finally, I think the rate of $140.00 per night (AAA RATE) is to steep considering the fact that there is nothing to do in the general area. It's not a bad area, just nothing around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r177126008-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>177126008</t>
+  </si>
+  <si>
+    <t>09/14/2013</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights in September. Great management and employees. The night we arrived they had a small managers reception for guests. The manager made us feel very comfortable and attended to any of our needs. The room was very clean with very comfortable beds. I didn't like the air conditioner because it didn't have a low setting, it only blew air on high. It was something I could live with because once it reached the set temperature automatically it would shut off. It was just annoying and would make the room cold at times. The included free breakfast was your standard HIE breakfast which are always good. The gym had 2 treadmills, an elliptical machine, a bike, and some free weights. The pool was very disappointing. It was small and only went up to 4 feet which made it very hard to enjoy. Maybe the pool is good for kids but not for a 5'10 adult. The hot tub was not the cleanest looking and was not warm at all. All in all in what a good place to stay because the rooms were clean, it was quiet, and the employees were all very pleasant and welcoming.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights in September. Great management and employees. The night we arrived they had a small managers reception for guests. The manager made us feel very comfortable and attended to any of our needs. The room was very clean with very comfortable beds. I didn't like the air conditioner because it didn't have a low setting, it only blew air on high. It was something I could live with because once it reached the set temperature automatically it would shut off. It was just annoying and would make the room cold at times. The included free breakfast was your standard HIE breakfast which are always good. The gym had 2 treadmills, an elliptical machine, a bike, and some free weights. The pool was very disappointing. It was small and only went up to 4 feet which made it very hard to enjoy. Maybe the pool is good for kids but not for a 5'10 adult. The hot tub was not the cleanest looking and was not warm at all. All in all in what a good place to stay because the rooms were clean, it was quiet, and the employees were all very pleasant and welcoming.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r170556825-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
   </si>
   <si>
@@ -1083,6 +1618,60 @@
   </si>
   <si>
     <t>My girlfriend and I stayed at the Holiday Inn Express July 8th, 2013 and from the moment we entered we had exceptional service. Cheryl, the General Manager, greeted us after we returned from sight-seeing in Galveston to let us know about free Papa Johns pizza and beer in the lounge starting at 5:00 p.m. I have stayed at more expensive Marriot's in the Texas Medical Center of Houston and not had near the top-notch service or comparable room accomodations. We were impressed with the thinking outside of the box offerings at the Alvin Holiday Inn Express. We were told they do three  free meals each week on Mondays, Tuesdays and Thursdays. I am a holiday Inn Express convert and will no longer be staying at overrated expensive Marriot hotels.Thank you for a great hotel visit Cheryl.All the best,Brett O.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r164080042-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>164080042</t>
+  </si>
+  <si>
+    <t>06/15/2013</t>
+  </si>
+  <si>
+    <t>Quiet &amp; relaxing</t>
+  </si>
+  <si>
+    <t>We've stayed at a few accommodation places along the Loop 35 skirting a small Texas town named Alvin 35 miles south west of Houston. It is famously known as the birthplace of one of America's famous Baseball pitchers Nolan Ryan. The Nolan Ryan Centre (I reviewed earlier this year). This one at Holiday Inn - is about the newest only a couple of years old now. It's clean, has a great lobby, serves complimentary breakfasts, caters for many workers from the various industrial industries, chemical, petroleum etc. They are friendly folk that stay there - like us Aussies. Booking on line has been easy and they are relaxed and friendly upon check-in. The rooms are quite large and the beds comfy. There's a business centre, fitness centre, laundry that just make one's stay much more adaptable. We are going back there in October 2013.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded June 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2013</t>
+  </si>
+  <si>
+    <t>We've stayed at a few accommodation places along the Loop 35 skirting a small Texas town named Alvin 35 miles south west of Houston. It is famously known as the birthplace of one of America's famous Baseball pitchers Nolan Ryan. The Nolan Ryan Centre (I reviewed earlier this year). This one at Holiday Inn - is about the newest only a couple of years old now. It's clean, has a great lobby, serves complimentary breakfasts, caters for many workers from the various industrial industries, chemical, petroleum etc. They are friendly folk that stay there - like us Aussies. Booking on line has been easy and they are relaxed and friendly upon check-in. The rooms are quite large and the beds comfy. There's a business centre, fitness centre, laundry that just make one's stay much more adaptable. We are going back there in October 2013.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r163307246-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>163307246</t>
+  </si>
+  <si>
+    <t>06/07/2013</t>
+  </si>
+  <si>
+    <t>Absolutely Perfect!</t>
+  </si>
+  <si>
+    <t>A great motel and a great price.  This hotel is pretty new.  Our room was perfect.  Nice, large screen T.V.  and great breakfast the following morning.  The personnel went out of there way to help us with anything we needed.  Beautiful, clean pool and workout room.  We'll be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded June 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2013</t>
+  </si>
+  <si>
+    <t>A great motel and a great price.  This hotel is pretty new.  Our room was perfect.  Nice, large screen T.V.  and great breakfast the following morning.  The personnel went out of there way to help us with anything we needed.  Beautiful, clean pool and workout room.  We'll be back!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r159248806-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
@@ -1159,6 +1748,57 @@
   </si>
   <si>
     <t>The staff were all great during our 2 week plus stay for work.  Just about anything we need or forgot the had availible to us.  Breakfast was pretty good.  Hannah was particularly tentative and i feel the company shold do all they can to keep her on staff.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r151546213-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>151546213</t>
+  </si>
+  <si>
+    <t>02/06/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We are 3 out of 4 days into our stay here but there's no need to wait until we leave to review it. Everything has been great during our stay. Hotel is very nice looking and clean. Bed is very comfy and the rooms have a huge TV with DirectTV. Holiday Inn Express breakfast is great as usual. The business center and workout room are open 24/7 which is very convenient. Curtis and the rest of the staff are very accommodating and friendly. The only minor comment is the light that comes through the windows. My girlfriend is one who needs her room completely dark and it would have been helpful if the outer curtains closed all the way. Would definitely stay here again though!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded February 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2013</t>
+  </si>
+  <si>
+    <t>We are 3 out of 4 days into our stay here but there's no need to wait until we leave to review it. Everything has been great during our stay. Hotel is very nice looking and clean. Bed is very comfy and the rooms have a huge TV with DirectTV. Holiday Inn Express breakfast is great as usual. The business center and workout room are open 24/7 which is very convenient. Curtis and the rest of the staff are very accommodating and friendly. The only minor comment is the light that comes through the windows. My girlfriend is one who needs her room completely dark and it would have been helpful if the outer curtains closed all the way. Would definitely stay here again though!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r150440796-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>150440796</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>A bit tricky to find the road Entrance...but I would stay here again!</t>
+  </si>
+  <si>
+    <t>This hotel was clean and comfortable with visual aesthetics in the lobby and the rooms.  The pool was drained during my stay and the jacuzzi water was tepid at best.  They did have a nice looking exercise room complete with free weights. They had extra electrical outlets well placed in the lamps for charging cell phones and computers. The front desk staff were very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded January 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2013</t>
+  </si>
+  <si>
+    <t>This hotel was clean and comfortable with visual aesthetics in the lobby and the rooms.  The pool was drained during my stay and the jacuzzi water was tepid at best.  They did have a nice looking exercise room complete with free weights. They had extra electrical outlets well placed in the lamps for charging cell phones and computers. The front desk staff were very friendly.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r146255721-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
@@ -1236,12 +1876,51 @@
     <t>The lobby makes a good first impression, with tile and wood accents. Reception staff are friendly and helpful. The room itself was large, with high ceilings. It was also clean, modern, and nicely furnished. The interstate is just outside, but it was surprisingly quiet inside with regard to traffic. On the other hand, we heard a lot of noise from people walking around upstairs. The bathroom was also large, with new tiles and fixtures, and a jacuzzi tub. Unfortunately, the air conditioning choices were either full-blast cold, or nothing. Breakfast was also included, with all the usual selections, and served in a large, comfortable dining room.One tip: "Joe's Bar-B-Q" is just a couple of blocks away (ask for directions from the staff).  It's a great place for dinner with lots of real Texas atmosphere; we liked it so much we ate there two nights in a row.MoreShow less</t>
   </si>
   <si>
-    <t>October 2012</t>
-  </si>
-  <si>
     <t>The lobby makes a good first impression, with tile and wood accents. Reception staff are friendly and helpful. The room itself was large, with high ceilings. It was also clean, modern, and nicely furnished. The interstate is just outside, but it was surprisingly quiet inside with regard to traffic. On the other hand, we heard a lot of noise from people walking around upstairs. The bathroom was also large, with new tiles and fixtures, and a jacuzzi tub. Unfortunately, the air conditioning choices were either full-blast cold, or nothing. Breakfast was also included, with all the usual selections, and served in a large, comfortable dining room.One tip: "Joe's Bar-B-Q" is just a couple of blocks away (ask for directions from the staff).  It's a great place for dinner with lots of real Texas atmosphere; we liked it so much we ate there two nights in a row.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r143336151-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>143336151</t>
+  </si>
+  <si>
+    <t>10/21/2012</t>
+  </si>
+  <si>
+    <t>Excellent Room, Excellent Service, Excellent Breakfast!</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed here the night before our cruise. The hotel was so nice and it smelled so good and was very clean. The staff was very nice. Checking in was a breeze as well as checking out.Our room was very nice and roomy. The beds were very comfortable. The bathroom was nice and the shower was great. There is plenty of hot water. The soaps, shampoo and conditioner they provide smells soooo good.Breakfast is a real treat. Everything is so good and you have a wide variety of breakfast foods/drinks to choose from. We will be going on another cruise and you can bet I will stay here again. I have stayed at the La Quinta next door. Both hotels are great however, Holiday Inn Express rates slightly higher.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed here the night before our cruise. The hotel was so nice and it smelled so good and was very clean. The staff was very nice. Checking in was a breeze as well as checking out.Our room was very nice and roomy. The beds were very comfortable. The bathroom was nice and the shower was great. There is plenty of hot water. The soaps, shampoo and conditioner they provide smells soooo good.Breakfast is a real treat. Everything is so good and you have a wide variety of breakfast foods/drinks to choose from. We will be going on another cruise and you can bet I will stay here again. I have stayed at the La Quinta next door. Both hotels are great however, Holiday Inn Express rates slightly higher.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r141869267-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>141869267</t>
+  </si>
+  <si>
+    <t>10/02/2012</t>
+  </si>
+  <si>
+    <t>Best in alvin</t>
+  </si>
+  <si>
+    <t>Going to alvin wasnt the town that i wanted to stay in, but a friend of mine recommended the Holiday Inn in alvin and im so glad i stayed there. Great Breakfast, Great Staff, Great EVERYTHING. My next business trip that leads me that way, no doubts about it, i will be staying there again. Front desk was amazing, Kim &amp; Brandon were the best, they treated me like i was family and helped me with directions &amp; housekeeper mary was very accomodating as well. Rooms were excellent, and hotel is in great condition. Cant wait to go back and stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Going to alvin wasnt the town that i wanted to stay in, but a friend of mine recommended the Holiday Inn in alvin and im so glad i stayed there. Great Breakfast, Great Staff, Great EVERYTHING. My next business trip that leads me that way, no doubts about it, i will be staying there again. Front desk was amazing, Kim &amp; Brandon were the best, they treated me like i was family and helped me with directions &amp; housekeeper mary was very accomodating as well. Rooms were excellent, and hotel is in great condition. Cant wait to go back and stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r140443580-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
   </si>
   <si>
@@ -1257,9 +1936,6 @@
     <t>Very good customer service.  Very clean room.  Only complaint, hot tub heater was not working.  Great breakfast, and attendant at breakfast was very helpful.  I'd recommend this hotel, and I'm very picky.MoreShow less</t>
   </si>
   <si>
-    <t>September 2012</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston-Alvin, responded to this reviewResponded October 8, 2012</t>
   </si>
   <si>
@@ -1311,6 +1987,42 @@
     <t>We stayed here for our weekend vacation to Galveston.  It's a 30 minute drive to the island, so it was no biggie, we planned for drive time :)  The front desk staff was excellent - very helpful - even printed out directions to our destination.  We reserved a standard room with two queen beds.  Next time we will opt for a double queen suite; with our family of 5 it was a little tight.  The room was clean, and had no signs of having been smoked in.  The beds were comfortable, as were the pillows.  The bathroom was clean as well and they provided the basic toiletries- soap, lotion, shampoo, conditioner, as well as mouthwash.  The towels were fluffy, and new.  The bathtub drain leaked just a little bit, but not so much that you couldn't enjoy your bath.  The water got really hot which is a plus for me!  The swimming pool was small, but our kids still had fun.  The hot tub was out of service, the heater was broken, but hey, it's Texas.  Who needs a hot tub? LOL!  The breakfast choices were average - donuts, muffins, bananas, bagels, cereal, eggs, sausage, biscuits and gravy, toast, juices and coffee.  The food was average; the coffee was good.  If you happen to forget anything (like I forgot the baby's bag at home-yikes! lol) there is a Wal-Mart super center right down the road that is open 24 hours....We stayed here for our weekend vacation to Galveston.  It's a 30 minute drive to the island, so it was no biggie, we planned for drive time :)  The front desk staff was excellent - very helpful - even printed out directions to our destination.  We reserved a standard room with two queen beds.  Next time we will opt for a double queen suite; with our family of 5 it was a little tight.  The room was clean, and had no signs of having been smoked in.  The beds were comfortable, as were the pillows.  The bathroom was clean as well and they provided the basic toiletries- soap, lotion, shampoo, conditioner, as well as mouthwash.  The towels were fluffy, and new.  The bathtub drain leaked just a little bit, but not so much that you couldn't enjoy your bath.  The water got really hot which is a plus for me!  The swimming pool was small, but our kids still had fun.  The hot tub was out of service, the heater was broken, but hey, it's Texas.  Who needs a hot tub? LOL!  The breakfast choices were average - donuts, muffins, bananas, bagels, cereal, eggs, sausage, biscuits and gravy, toast, juices and coffee.  The food was average; the coffee was good.  If you happen to forget anything (like I forgot the baby's bag at home-yikes! lol) there is a Wal-Mart super center right down the road that is open 24 hours.  All in all we would stay there again if given the chance.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r128468221-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>128468221</t>
+  </si>
+  <si>
+    <t>04/23/2012</t>
+  </si>
+  <si>
+    <t>Very pleasant stay</t>
+  </si>
+  <si>
+    <t>Stayed here for my 50th high school reunion.  Other class mates from out of town also booked here.  And there were many high school students who were particpating in tournament basketball games. All went well.  No problems with noise etc.  Staff was cordial, room very nice, and breakfast hit the spot.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r120959647-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>120959647</t>
+  </si>
+  <si>
+    <t>11/23/2011</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>Stayed on 11/11/11.  The staff including the maids were very friendly and helpful.  Had a problem with one of our rooms, and the staff jump on it immiediately to correct the problem.  Nice motel, clean rooms, cozy nice place for breakfast with good food, and wonderful beds.  Very nice place to stay.  Will definitely stay there again if I'm ever in Alvin.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r120387075-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
   </si>
   <si>
@@ -1369,6 +2081,45 @@
   </si>
   <si>
     <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r98830038-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>98830038</t>
+  </si>
+  <si>
+    <t>03/03/2011</t>
+  </si>
+  <si>
+    <t>Above average</t>
+  </si>
+  <si>
+    <t>Another hiexpress clone. Very clean and still looks relatively new. Adjacent to busy road so never totally quiet. Breakfast was usual sugarfest with a few hot bits. Alas it had to be eaten with plastic knives and forks on polystyrene plates.This seems to be standard for hiexpress but very poor in our opinion.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r88280726-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>88280726</t>
+  </si>
+  <si>
+    <t>11/26/2010</t>
+  </si>
+  <si>
+    <t>Nice amenities, budget pricing</t>
+  </si>
+  <si>
+    <t>As of November 2010, this hotel looks brand new.  The nice wood furnishings and decorative touches in lobby and great room make this feel much more welcoming than a budget hotel.  It has a nice pool with colored interior lights and a nice-size spa.  It has a small workout room, but the full set of weights make it serviceable.  Rooms are a nice size, with refrigerator and microwave, 50-inch TV, free internet, comfortable beds.  Everything looks and smells new - the carpets, paint, bed coverings.  Free breakfast with eggs, bacon, sausage, muffins, toast, coffee, orange juice, cereal, milk, fresh fruit.   Alvin, TX, is not exactly a hopping town, so you're probably here on business or to visit family.  You're directly down the street from Walmart and CVS for any forgotten essentials This is a very comfortable home base; you'll be happy you chose it.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>As of November 2010, this hotel looks brand new.  The nice wood furnishings and decorative touches in lobby and great room make this feel much more welcoming than a budget hotel.  It has a nice pool with colored interior lights and a nice-size spa.  It has a small workout room, but the full set of weights make it serviceable.  Rooms are a nice size, with refrigerator and microwave, 50-inch TV, free internet, comfortable beds.  Everything looks and smells new - the carpets, paint, bed coverings.  Free breakfast with eggs, bacon, sausage, muffins, toast, coffee, orange juice, cereal, milk, fresh fruit.   Alvin, TX, is not exactly a hopping town, so you're probably here on business or to visit family.  You're directly down the street from Walmart and CVS for any forgotten essentials This is a very comfortable home base; you'll be happy you chose it.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1465010-r79910317-Holiday_Inn_Express_Hotel_Suites_Houston_Alvin-Alvin_Texas.html</t>
@@ -1967,16 +2718,10 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -2030,29 +2775,25 @@
         <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
         <v>64</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -2068,52 +2809,58 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -2129,52 +2876,56 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
         <v>77</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>78</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>79</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>80</v>
       </c>
-      <c r="L5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O5" t="s">
-        <v>63</v>
-      </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -2190,7 +2941,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2199,25 +2950,25 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2229,13 +2980,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -2251,7 +3002,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2260,10 +3011,10 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
         <v>96</v>
@@ -2272,37 +3023,37 @@
         <v>97</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
         <v>98</v>
       </c>
-      <c r="O7" t="s">
-        <v>63</v>
-      </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
         <v>99</v>
-      </c>
-      <c r="X7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="8">
@@ -2318,58 +3069,52 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
         <v>102</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>103</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>104</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
         <v>105</v>
       </c>
-      <c r="L8" t="s">
+      <c r="X8" t="s">
         <v>106</v>
       </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="Y8" t="s">
         <v>107</v>
-      </c>
-      <c r="O8" t="s">
-        <v>108</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>3</v>
-      </c>
-      <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="s">
-        <v>109</v>
-      </c>
-      <c r="X8" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9">
@@ -2385,56 +3130,52 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
         <v>112</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>113</v>
-      </c>
-      <c r="J9" t="s">
-        <v>114</v>
-      </c>
-      <c r="K9" t="s">
-        <v>115</v>
-      </c>
-      <c r="L9" t="s">
-        <v>116</v>
-      </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>3</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="X9" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -2450,56 +3191,52 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" t="s">
         <v>120</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>121</v>
-      </c>
-      <c r="J10" t="s">
-        <v>122</v>
-      </c>
-      <c r="K10" t="s">
-        <v>123</v>
-      </c>
-      <c r="L10" t="s">
-        <v>124</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>88</v>
-      </c>
-      <c r="O10" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="X10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Y10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
@@ -2515,43 +3252,43 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
         <v>128</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
         <v>129</v>
       </c>
-      <c r="J11" t="s">
-        <v>130</v>
-      </c>
-      <c r="K11" t="s">
-        <v>131</v>
-      </c>
-      <c r="L11" t="s">
-        <v>132</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>133</v>
-      </c>
       <c r="O11" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="n">
+        <v>80</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
         <v>3</v>
       </c>
-      <c r="S11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>4</v>
@@ -2560,13 +3297,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="X11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
@@ -2582,58 +3319,52 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s">
         <v>137</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
         <v>138</v>
       </c>
-      <c r="J12" t="s">
-        <v>139</v>
-      </c>
-      <c r="K12" t="s">
-        <v>140</v>
-      </c>
-      <c r="L12" t="s">
-        <v>141</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>142</v>
-      </c>
       <c r="O12" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="X12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Y12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
@@ -2649,7 +3380,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2658,49 +3389,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="X13" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="Y13" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
@@ -2716,7 +3441,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2725,34 +3450,34 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="O14" t="s">
-        <v>108</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>5</v>
@@ -2761,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="X14" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="Y14" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
@@ -2783,7 +3508,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2792,28 +3517,36 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>119</v>
+      </c>
+      <c r="O15" t="s">
+        <v>80</v>
+      </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
@@ -2821,10 +3554,10 @@
         <v>161</v>
       </c>
       <c r="X15" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
@@ -2840,7 +3573,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2849,43 +3582,47 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="O16" t="s">
-        <v>73</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="X16" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
@@ -2901,34 +3638,34 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" t="s">
+        <v>175</v>
+      </c>
+      <c r="L17" t="s">
         <v>176</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
         <v>177</v>
       </c>
-      <c r="J17" t="s">
-        <v>178</v>
-      </c>
-      <c r="K17" t="s">
-        <v>179</v>
-      </c>
-      <c r="L17" t="s">
-        <v>180</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>181</v>
-      </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2940,13 +3677,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="X17" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="Y17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
@@ -2962,52 +3699,56 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" t="s">
         <v>183</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>184</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>185</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>186</v>
       </c>
-      <c r="L18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>188</v>
-      </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="Y18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
@@ -3023,52 +3764,58 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" t="s">
         <v>190</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>191</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>192</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
         <v>193</v>
       </c>
-      <c r="L19" t="s">
-        <v>194</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="O19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
         <v>3</v>
       </c>
-      <c r="N19" t="s">
-        <v>188</v>
-      </c>
-      <c r="O19" t="s">
-        <v>63</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="X19" t="s">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="Y19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
@@ -3084,7 +3831,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3093,33 +3840,33 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="n">
         <v>5</v>
       </c>
-      <c r="R20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
@@ -3129,13 +3876,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X20" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
@@ -3151,7 +3898,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3160,33 +3907,33 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
       </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
@@ -3196,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="X21" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
       <c r="Y21" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22">
@@ -3218,7 +3965,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3227,43 +3974,49 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
+        <v>216</v>
+      </c>
+      <c r="J22" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" t="s">
+        <v>218</v>
+      </c>
+      <c r="L22" t="s">
+        <v>219</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>211</v>
       </c>
-      <c r="J22" t="s">
-        <v>212</v>
-      </c>
-      <c r="K22" t="s">
-        <v>213</v>
-      </c>
-      <c r="L22" t="s">
-        <v>214</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>215</v>
-      </c>
       <c r="O22" t="s">
-        <v>73</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="X22" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="Y22" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23">
@@ -3279,7 +4032,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3288,47 +4041,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="J23" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="O23" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="X23" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="Y23" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
@@ -3344,7 +4093,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3353,47 +4102,49 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="J24" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="K24" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
       <c r="Q24" t="s"/>
       <c r="R24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="X24" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="Y24" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25">
@@ -3409,7 +4160,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3418,49 +4169,39 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
-      </c>
-      <c r="N25" t="s">
-        <v>229</v>
-      </c>
-      <c r="O25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>1</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="X25" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="Y25" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
@@ -3476,7 +4217,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3485,47 +4226,43 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="J26" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K26" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="O26" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="X26" t="s">
-        <v>244</v>
+        <v>82</v>
       </c>
       <c r="Y26" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
@@ -3541,7 +4278,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3550,49 +4287,43 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="J27" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K27" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="O27" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="X27" t="s">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="Y27" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28">
@@ -3608,7 +4339,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3617,49 +4348,49 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J28" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K28" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L28" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q28" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
       <c r="R28" t="s"/>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="X28" t="s">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="Y28" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29">
@@ -3675,34 +4406,34 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>264</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>265</v>
+      </c>
+      <c r="J29" t="s">
+        <v>266</v>
+      </c>
+      <c r="K29" t="s">
+        <v>267</v>
+      </c>
+      <c r="L29" t="s">
+        <v>268</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
         <v>262</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
-        <v>263</v>
-      </c>
-      <c r="J29" t="s">
-        <v>264</v>
-      </c>
-      <c r="K29" t="s">
-        <v>265</v>
-      </c>
-      <c r="L29" t="s">
-        <v>266</v>
-      </c>
-      <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="s">
-        <v>267</v>
-      </c>
       <c r="O29" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3714,13 +4445,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="X29" t="s">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="Y29" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30">
@@ -3736,7 +4467,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3745,49 +4476,43 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J30" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O30" t="s">
         <v>53</v>
       </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>220</v>
+      </c>
+      <c r="X30" t="s">
+        <v>82</v>
+      </c>
       <c r="Y30" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31">
@@ -3803,58 +4528,52 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>277</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>278</v>
+      </c>
+      <c r="J31" t="s">
+        <v>279</v>
+      </c>
+      <c r="K31" t="s">
+        <v>280</v>
+      </c>
+      <c r="L31" t="s">
+        <v>281</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
         <v>275</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
-        <v>276</v>
-      </c>
-      <c r="J31" t="s">
-        <v>277</v>
-      </c>
-      <c r="K31" t="s">
-        <v>278</v>
-      </c>
-      <c r="L31" t="s">
-        <v>279</v>
-      </c>
-      <c r="M31" t="n">
-        <v>2</v>
-      </c>
-      <c r="N31" t="s">
-        <v>280</v>
-      </c>
       <c r="O31" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>4</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>220</v>
+      </c>
+      <c r="X31" t="s">
+        <v>82</v>
+      </c>
       <c r="Y31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32">
@@ -3870,7 +4589,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3879,34 +4598,34 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J32" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K32" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>288</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R32" t="n">
-        <v>4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>5</v>
@@ -3915,13 +4634,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="X32" t="s">
-        <v>288</v>
+        <v>82</v>
       </c>
       <c r="Y32" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33">
@@ -3937,7 +4656,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3946,35 +4665,29 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J33" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K33" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O33" t="s">
         <v>53</v>
       </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
       <c r="S33" t="n">
         <v>5</v>
       </c>
@@ -3986,13 +4699,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="X33" t="s">
-        <v>288</v>
+        <v>82</v>
       </c>
       <c r="Y33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34">
@@ -4008,7 +4721,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4017,53 +4730,49 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J34" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K34" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L34" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="O34" t="s">
         <v>53</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>3</v>
-      </c>
-      <c r="R34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="X34" t="s">
-        <v>288</v>
+        <v>82</v>
       </c>
       <c r="Y34" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35">
@@ -4079,7 +4788,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4088,38 +4797,34 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J35" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K35" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L35" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="O35" t="s">
         <v>53</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q35" t="n">
         <v>5</v>
       </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>5</v>
@@ -4128,13 +4833,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
+        <v>297</v>
+      </c>
+      <c r="X35" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y35" t="s">
         <v>310</v>
-      </c>
-      <c r="X35" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="36">
@@ -4150,62 +4855,52 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>311</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>312</v>
+      </c>
+      <c r="J36" t="s">
         <v>313</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="K36" t="s">
         <v>314</v>
       </c>
-      <c r="J36" t="s">
+      <c r="L36" t="s">
         <v>315</v>
       </c>
-      <c r="K36" t="s">
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
         <v>316</v>
       </c>
-      <c r="L36" t="s">
+      <c r="O36" t="s">
+        <v>90</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>297</v>
+      </c>
+      <c r="X36" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y36" t="s">
         <v>317</v>
-      </c>
-      <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s">
-        <v>309</v>
-      </c>
-      <c r="O36" t="s">
-        <v>63</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>4</v>
-      </c>
-      <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>4</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="s">
-        <v>310</v>
-      </c>
-      <c r="X36" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="37">
@@ -4221,62 +4916,58 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>318</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
         <v>319</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>320</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>321</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>322</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
         <v>323</v>
       </c>
-      <c r="M37" t="n">
-        <v>4</v>
-      </c>
-      <c r="N37" t="s">
-        <v>324</v>
-      </c>
       <c r="O37" t="s">
-        <v>63</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="n">
         <v>4</v>
       </c>
       <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="X37" t="s">
-        <v>311</v>
+        <v>82</v>
       </c>
       <c r="Y37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38">
@@ -4292,58 +4983,48 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>325</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
         <v>326</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>327</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>328</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>329</v>
       </c>
-      <c r="L38" t="s">
-        <v>330</v>
-      </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s"/>
       <c r="O38" t="s"/>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>4</v>
-      </c>
-      <c r="R38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="X38" t="s">
-        <v>332</v>
+        <v>82</v>
       </c>
       <c r="Y38" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39">
@@ -4359,47 +5040,41 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>331</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>332</v>
+      </c>
+      <c r="J39" t="s">
+        <v>333</v>
+      </c>
+      <c r="K39" t="s">
         <v>334</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="L39" t="s">
         <v>335</v>
       </c>
-      <c r="J39" t="s">
-        <v>336</v>
-      </c>
-      <c r="K39" t="s">
-        <v>337</v>
-      </c>
-      <c r="L39" t="s">
-        <v>338</v>
-      </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
       <c r="R39" t="n">
         <v>4</v>
       </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>5</v>
@@ -4408,13 +5083,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="X39" t="s">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y39" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40">
@@ -4430,7 +5105,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4439,53 +5114,47 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="J40" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="K40" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="L40" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
       <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
       <c r="X40" t="s">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="Y40" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41">
@@ -4501,7 +5170,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4510,53 +5179,49 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="J41" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="K41" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="L41" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="X41" t="s">
-        <v>358</v>
+        <v>82</v>
       </c>
       <c r="Y41" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42">
@@ -4572,7 +5237,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4581,53 +5246,43 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="J42" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="K42" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L42" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>357</v>
-      </c>
-      <c r="X42" t="s">
-        <v>358</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43">
@@ -4643,7 +5298,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4652,49 +5307,39 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J43" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="K43" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="L43" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
-      <c r="P43" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>361</v>
+      </c>
+      <c r="O43" t="s">
+        <v>80</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>372</v>
-      </c>
-      <c r="X43" t="s">
-        <v>373</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44">
@@ -4710,7 +5355,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4719,53 +5364,47 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="J44" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="K44" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="L44" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>3</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
       <c r="S44" t="n">
         <v>5</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="X44" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="Y44" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45">
@@ -4781,7 +5420,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4790,53 +5429,49 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="J45" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="K45" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="L45" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P45" t="s"/>
       <c r="Q45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R45" t="n">
         <v>4</v>
       </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="X45" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="Y45" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46">
@@ -4852,7 +5487,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4861,35 +5496,31 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="J46" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="K46" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="L46" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="O46" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
       <c r="S46" t="n">
         <v>4</v>
       </c>
@@ -4901,13 +5532,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="X46" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="Y46" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47">
@@ -4923,7 +5554,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4932,53 +5563,47 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="J47" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="K47" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="L47" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="O47" t="s">
-        <v>63</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
       <c r="S47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="X47" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="Y47" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48">
@@ -4994,7 +5619,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5003,38 +5628,32 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="J48" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="K48" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="L48" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
-      </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="P48" t="s"/>
       <c r="Q48" t="n">
         <v>5</v>
       </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
         <v>5</v>
@@ -5042,10 +5661,14 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>376</v>
+      </c>
+      <c r="X48" t="s">
+        <v>377</v>
+      </c>
       <c r="Y48" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49">
@@ -5061,7 +5684,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5070,53 +5693,43 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="J49" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="K49" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="L49" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
-      </c>
-      <c r="P49" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>4</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>5</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>420</v>
+        <v>376</v>
       </c>
       <c r="X49" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="Y49" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50">
@@ -5132,7 +5745,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5141,22 +5754,22 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="J50" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="K50" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="L50" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="O50" t="s">
         <v>53</v>
@@ -5183,7 +5796,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51">
@@ -5199,7 +5812,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5208,37 +5821,41 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="J51" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="K51" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="L51" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="O51" t="s">
         <v>53</v>
       </c>
       <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -5246,7 +5863,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="52">
@@ -5262,7 +5879,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5271,41 +5888,41 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="J52" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="K52" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="L52" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="O52" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
       </c>
       <c r="Q52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R52" t="n">
         <v>4</v>
       </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5313,7 +5930,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53">
@@ -5329,7 +5946,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5338,41 +5955,41 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="J53" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="K53" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="L53" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="O53" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="n">
         <v>5</v>
       </c>
       <c r="R53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5380,7 +5997,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54">
@@ -5396,7 +6013,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5405,37 +6022,33 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="J54" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="K54" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="L54" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
-      </c>
-      <c r="N54" t="s">
-        <v>454</v>
-      </c>
-      <c r="O54" t="s">
-        <v>53</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
@@ -5444,10 +6057,14 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>436</v>
+      </c>
+      <c r="X54" t="s">
+        <v>437</v>
+      </c>
       <c r="Y54" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="55">
@@ -5463,7 +6080,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5472,25 +6089,25 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="J55" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="K55" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="L55" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="O55" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5511,10 +6128,2506 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>436</v>
+      </c>
+      <c r="X55" t="s">
+        <v>437</v>
+      </c>
       <c r="Y55" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>446</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>447</v>
+      </c>
+      <c r="J56" t="s">
+        <v>448</v>
+      </c>
+      <c r="K56" t="s">
+        <v>449</v>
+      </c>
+      <c r="L56" t="s">
+        <v>450</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>451</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>436</v>
+      </c>
+      <c r="X56" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>453</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>454</v>
+      </c>
+      <c r="J57" t="s">
+        <v>455</v>
+      </c>
+      <c r="K57" t="s">
+        <v>456</v>
+      </c>
+      <c r="L57" t="s">
+        <v>457</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>444</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>436</v>
+      </c>
+      <c r="X57" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
         <v>459</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>460</v>
+      </c>
+      <c r="J58" t="s">
+        <v>461</v>
+      </c>
+      <c r="K58" t="s">
+        <v>462</v>
+      </c>
+      <c r="L58" t="s">
+        <v>463</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>464</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>465</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>466</v>
+      </c>
+      <c r="J59" t="s">
+        <v>467</v>
+      </c>
+      <c r="K59" t="s">
+        <v>468</v>
+      </c>
+      <c r="L59" t="s">
+        <v>469</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>470</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>471</v>
+      </c>
+      <c r="X59" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>474</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>475</v>
+      </c>
+      <c r="J60" t="s">
+        <v>476</v>
+      </c>
+      <c r="K60" t="s">
+        <v>477</v>
+      </c>
+      <c r="L60" t="s">
+        <v>478</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>470</v>
+      </c>
+      <c r="O60" t="s">
+        <v>80</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>471</v>
+      </c>
+      <c r="X60" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>480</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>481</v>
+      </c>
+      <c r="J61" t="s">
+        <v>482</v>
+      </c>
+      <c r="K61" t="s">
+        <v>483</v>
+      </c>
+      <c r="L61" t="s">
+        <v>484</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>485</v>
+      </c>
+      <c r="O61" t="s">
+        <v>80</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>471</v>
+      </c>
+      <c r="X61" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>487</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>488</v>
+      </c>
+      <c r="J62" t="s">
+        <v>489</v>
+      </c>
+      <c r="K62" t="s">
+        <v>490</v>
+      </c>
+      <c r="L62" t="s">
+        <v>491</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>492</v>
+      </c>
+      <c r="X62" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>495</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>496</v>
+      </c>
+      <c r="J63" t="s">
+        <v>497</v>
+      </c>
+      <c r="K63" t="s">
+        <v>498</v>
+      </c>
+      <c r="L63" t="s">
+        <v>499</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>485</v>
+      </c>
+      <c r="O63" t="s">
+        <v>98</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>492</v>
+      </c>
+      <c r="X63" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>501</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>502</v>
+      </c>
+      <c r="J64" t="s">
+        <v>503</v>
+      </c>
+      <c r="K64" t="s">
+        <v>504</v>
+      </c>
+      <c r="L64" t="s">
+        <v>505</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>506</v>
+      </c>
+      <c r="X64" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>509</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>510</v>
+      </c>
+      <c r="J65" t="s">
+        <v>511</v>
+      </c>
+      <c r="K65" t="s">
+        <v>512</v>
+      </c>
+      <c r="L65" t="s">
+        <v>513</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>514</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>515</v>
+      </c>
+      <c r="X65" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>518</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>519</v>
+      </c>
+      <c r="J66" t="s">
+        <v>520</v>
+      </c>
+      <c r="K66" t="s">
+        <v>521</v>
+      </c>
+      <c r="L66" t="s">
+        <v>522</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>514</v>
+      </c>
+      <c r="O66" t="s">
+        <v>80</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>523</v>
+      </c>
+      <c r="X66" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>526</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>527</v>
+      </c>
+      <c r="J67" t="s">
+        <v>528</v>
+      </c>
+      <c r="K67" t="s">
+        <v>529</v>
+      </c>
+      <c r="L67" t="s">
+        <v>530</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>531</v>
+      </c>
+      <c r="O67" t="s">
+        <v>80</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>532</v>
+      </c>
+      <c r="X67" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>535</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>536</v>
+      </c>
+      <c r="J68" t="s">
+        <v>537</v>
+      </c>
+      <c r="K68" t="s">
+        <v>538</v>
+      </c>
+      <c r="L68" t="s">
+        <v>539</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>540</v>
+      </c>
+      <c r="O68" t="s">
+        <v>90</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>541</v>
+      </c>
+      <c r="X68" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>544</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>545</v>
+      </c>
+      <c r="J69" t="s">
+        <v>546</v>
+      </c>
+      <c r="K69" t="s">
+        <v>547</v>
+      </c>
+      <c r="L69" t="s">
+        <v>548</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>549</v>
+      </c>
+      <c r="O69" t="s">
+        <v>80</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>550</v>
+      </c>
+      <c r="X69" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>553</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>554</v>
+      </c>
+      <c r="J70" t="s">
+        <v>555</v>
+      </c>
+      <c r="K70" t="s">
+        <v>556</v>
+      </c>
+      <c r="L70" t="s">
+        <v>557</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>558</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>550</v>
+      </c>
+      <c r="X70" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>560</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>561</v>
+      </c>
+      <c r="J71" t="s">
+        <v>562</v>
+      </c>
+      <c r="K71" t="s">
+        <v>563</v>
+      </c>
+      <c r="L71" t="s">
+        <v>564</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>565</v>
+      </c>
+      <c r="X71" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>568</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>569</v>
+      </c>
+      <c r="J72" t="s">
+        <v>570</v>
+      </c>
+      <c r="K72" t="s">
+        <v>571</v>
+      </c>
+      <c r="L72" t="s">
+        <v>572</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>573</v>
+      </c>
+      <c r="O72" t="s">
+        <v>80</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>574</v>
+      </c>
+      <c r="X72" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>577</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>578</v>
+      </c>
+      <c r="J73" t="s">
+        <v>579</v>
+      </c>
+      <c r="K73" t="s">
+        <v>580</v>
+      </c>
+      <c r="L73" t="s">
+        <v>581</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>451</v>
+      </c>
+      <c r="O73" t="s">
+        <v>80</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>582</v>
+      </c>
+      <c r="X73" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>585</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>586</v>
+      </c>
+      <c r="J74" t="s">
+        <v>587</v>
+      </c>
+      <c r="K74" t="s">
+        <v>588</v>
+      </c>
+      <c r="L74" t="s">
+        <v>589</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>590</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>591</v>
+      </c>
+      <c r="X74" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>594</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>595</v>
+      </c>
+      <c r="J75" t="s">
+        <v>596</v>
+      </c>
+      <c r="K75" t="s">
+        <v>597</v>
+      </c>
+      <c r="L75" t="s">
+        <v>598</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>599</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>600</v>
+      </c>
+      <c r="X75" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>603</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>604</v>
+      </c>
+      <c r="J76" t="s">
+        <v>605</v>
+      </c>
+      <c r="K76" t="s">
+        <v>606</v>
+      </c>
+      <c r="L76" t="s">
+        <v>607</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>531</v>
+      </c>
+      <c r="O76" t="s">
+        <v>90</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>600</v>
+      </c>
+      <c r="X76" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>609</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>610</v>
+      </c>
+      <c r="J77" t="s">
+        <v>611</v>
+      </c>
+      <c r="K77" t="s">
+        <v>612</v>
+      </c>
+      <c r="L77" t="s">
+        <v>613</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>614</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>600</v>
+      </c>
+      <c r="X77" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>616</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>617</v>
+      </c>
+      <c r="J78" t="s">
+        <v>618</v>
+      </c>
+      <c r="K78" t="s">
+        <v>619</v>
+      </c>
+      <c r="L78" t="s">
+        <v>620</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>621</v>
+      </c>
+      <c r="O78" t="s">
+        <v>80</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>600</v>
+      </c>
+      <c r="X78" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>623</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>624</v>
+      </c>
+      <c r="J79" t="s">
+        <v>625</v>
+      </c>
+      <c r="K79" t="s">
+        <v>626</v>
+      </c>
+      <c r="L79" t="s">
+        <v>627</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>614</v>
+      </c>
+      <c r="O79" t="s">
+        <v>80</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>628</v>
+      </c>
+      <c r="X79" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>631</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>632</v>
+      </c>
+      <c r="J80" t="s">
+        <v>633</v>
+      </c>
+      <c r="K80" t="s">
+        <v>634</v>
+      </c>
+      <c r="L80" t="s">
+        <v>635</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>636</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>637</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>638</v>
+      </c>
+      <c r="J81" t="s">
+        <v>639</v>
+      </c>
+      <c r="K81" t="s">
+        <v>640</v>
+      </c>
+      <c r="L81" t="s">
+        <v>641</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>599</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>642</v>
+      </c>
+      <c r="X81" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>645</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>646</v>
+      </c>
+      <c r="J82" t="s">
+        <v>647</v>
+      </c>
+      <c r="K82" t="s">
+        <v>648</v>
+      </c>
+      <c r="L82" t="s">
+        <v>649</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>650</v>
+      </c>
+      <c r="O82" t="s">
+        <v>98</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>651</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>652</v>
+      </c>
+      <c r="J83" t="s">
+        <v>653</v>
+      </c>
+      <c r="K83" t="s">
+        <v>654</v>
+      </c>
+      <c r="L83" t="s">
+        <v>655</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>656</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>657</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>658</v>
+      </c>
+      <c r="J84" t="s">
+        <v>659</v>
+      </c>
+      <c r="K84" t="s">
+        <v>660</v>
+      </c>
+      <c r="L84" t="s">
+        <v>661</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>662</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>664</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>665</v>
+      </c>
+      <c r="J85" t="s">
+        <v>666</v>
+      </c>
+      <c r="K85" t="s">
+        <v>667</v>
+      </c>
+      <c r="L85" t="s">
+        <v>668</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>669</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>671</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>672</v>
+      </c>
+      <c r="J86" t="s">
+        <v>673</v>
+      </c>
+      <c r="K86" t="s">
+        <v>674</v>
+      </c>
+      <c r="L86" t="s">
+        <v>675</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>676</v>
+      </c>
+      <c r="O86" t="s">
+        <v>80</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>677</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>678</v>
+      </c>
+      <c r="J87" t="s">
+        <v>679</v>
+      </c>
+      <c r="K87" t="s">
+        <v>680</v>
+      </c>
+      <c r="L87" t="s">
+        <v>681</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>682</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>683</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>684</v>
+      </c>
+      <c r="J88" t="s">
+        <v>685</v>
+      </c>
+      <c r="K88" t="s">
+        <v>686</v>
+      </c>
+      <c r="L88" t="s">
+        <v>687</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>688</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>690</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>691</v>
+      </c>
+      <c r="J89" t="s">
+        <v>692</v>
+      </c>
+      <c r="K89" t="s">
+        <v>693</v>
+      </c>
+      <c r="L89" t="s">
+        <v>694</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>695</v>
+      </c>
+      <c r="O89" t="s">
+        <v>90</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>696</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>697</v>
+      </c>
+      <c r="J90" t="s">
+        <v>698</v>
+      </c>
+      <c r="K90" t="s">
+        <v>699</v>
+      </c>
+      <c r="L90" t="s">
+        <v>700</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>701</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>59260</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>702</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>703</v>
+      </c>
+      <c r="J91" t="s">
+        <v>704</v>
+      </c>
+      <c r="K91" t="s">
+        <v>705</v>
+      </c>
+      <c r="L91" t="s">
+        <v>706</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>707</v>
+      </c>
+      <c r="O91" t="s">
+        <v>90</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>706</v>
       </c>
     </row>
   </sheetData>
